--- a/excel/17.xlsx
+++ b/excel/17.xlsx
@@ -828,7 +828,11 @@
           <t>宏观经济学（C）刘红英 (10-17周) 物流管理2020-1-2</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>海洋环境学赵艳云 (12-17周) 环境工程2020-1-4</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -908,7 +912,7 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>安全工程专业导论刘义鑫 (12-19周) 安全工程2021-2</t>
+          <t>安全工程专业导论贺正龙 (12-19周) 安全工程2021-2</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -2133,11 +2137,7 @@
           <t>电工电子技术（B）卫永琴 (10-18周) 金属材料工程2019-1-3</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>海洋环境学赵艳云 (12-17周) 环境工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
           <t>电工电子技术（B）马进 (11-18周) 高分子材料与工程2020-1-3</t>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>当代中国经济专题*孙江永,赵金凯 (11-18周) 国际经济与贸易2020-1-2</t>
+          <t>当代中国经济专题*李丽丽,孟文强,孙江永,赵金凯 (11-18周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -7099,11 +7099,7 @@
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
@@ -7125,11 +7121,7 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr">
         <is>
           <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>

--- a/excel/17.xlsx
+++ b/excel/17.xlsx
@@ -761,8 +761,10 @@
       <c r="AE2" t="n">
         <v>708</v>
       </c>
-      <c r="AF2" t="n">
-        <v>910</v>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0910</t>
+        </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
@@ -799,7 +801,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宏观经济学（C）刘红英 (10-17周) 物流管理2020-1-2</t>
+          <t>宏观经济学（C）李淑云 (10-17周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -809,14 +811,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>工商管理学科前沿﹡方宏 (11-19周) 工商管理2018-1-2</t>
+          <t>工商管理学科前沿﹡方宏 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>劳动与社会保障学周志刚 (10-18周) 工商管理2018-1-2</t>
+          <t>劳动与社会保障学周志刚 (10-17周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -825,7 +827,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>宏观经济学（C）刘红英 (10-17周) 物流管理2020-1-2</t>
+          <t>宏观经济学（C）李淑云 (10-17周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -838,7 +840,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>劳动与社会保障学周志刚 (10-18周) 工商管理2018-1-2</t>
+          <t>劳动与社会保障学周志刚 (10-17周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -848,7 +850,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>工商管理学科前沿﹡方宏 (11-19周) 工商管理2018-1-2</t>
+          <t>工商管理学科前沿﹡方宏 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -883,10 +885,26 @@
           <t>环境工程专业导论刘音 (12-19周) 环境工程2021-3-4</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)王惠 (17周) 应用化学2021-1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>金融经济学秦晓钰 (17周) 金融学2019-1-2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>消费者行为学宋平 (17单周) 工商管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>劳动与社会保障学周志刚 (17周) 工商管理2018-1-2</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>环境生态学唐小玲 (11-19周) 环境工程2019-1-2</t>
@@ -900,13 +918,29 @@
           <t>自然灾害应急管理倪冠华 (15-20周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>高分子化学王冬梅 (17周) 应用化学2019-1-3</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>结构设计原理孙宗军 (16-17周) 交通工程2019-1-2</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>劳动与社会保障学周志刚 (17周) 工商管理2018-1-2</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>技术经济学陈会英 (17周) 工商管理2019-1-2</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -920,7 +954,11 @@
           <t>工程概论周红敏 (10-17周) 工程力学2020-1-2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>结构设计原理孙宗军 (17周) 交通工程2019-1-2</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
@@ -959,10 +997,14 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>国际货物运输与保险焦习燕 (17周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>港口与自贸区物流董兴林 (12-19周) 物流管理2020-1-2</t>
+          <t>港口与自贸区物流董兴林 (12-18周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -972,7 +1014,11 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>国际货物运输与保险焦习燕 (17周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2020-1-2</t>
@@ -992,7 +1038,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>港口与自贸区物流董兴林 (12-19周) 物流管理2020-1-2</t>
+          <t>港口与自贸区物流董兴林 (12-18周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1005,7 +1051,7 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1015,24 +1061,28 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>微观经济学（A）任一鑫 (17周) 会计辅修 2020版</t>
+        </is>
+      </c>
       <c r="AG5" t="inlineStr">
         <is>
           <t>经济法（B）陈金库 (11-18周) 会计辅修 2020版</t>
@@ -1068,11 +1118,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-19周) 材料化学2019-2</t>
+          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>技术经济学陈会英 (17周) 工商管理2019-1-2</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>遥感图像处理与应用朱金山 (11-19周) 测绘工程2018-3-4</t>
@@ -1085,10 +1139,14 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>运筹学（B）庄晓雯 (17周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-19周) 材料化学2019-2</t>
+          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1096,7 +1154,11 @@
           <t>材料物理性能朱慧灵 (10-18周) 金属材料工程2019-3-5</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>物理化学杨静 (17周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -1109,14 +1171,18 @@
           <t>无机化学李志超 (13-18周) 金属材料工程2021-1-2</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>文献检索与科技论文撰写崔蓝月 (17周) 材料化学2019-2</t>
+        </is>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-19周) 材料化学2019-2</t>
+          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr"/>
@@ -1141,7 +1207,11 @@
           <t>J14-109室</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)王惠 (17周) 安全工程2021-4</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>计算机技术基础（VB.net）颜伟 (10-17周) 工业工程2020-1-2</t>
@@ -1149,12 +1219,12 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>采矿工程导论樊克恭 (12-19周) 采矿工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)杨明 (17周) 地质工程2021-1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>矿山环境概论刘立民 (16-19周) 采矿工程2020-2</t>
@@ -1240,7 +1310,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>政府及非营利组织会计崔树德 (11-19周) 会计学2019-1-2</t>
+          <t>政府及非营利组织会计崔树德 (11-17周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1250,14 +1320,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>第三方物流董兴林 (11-19周) 物流管理2018-1-2</t>
+          <t>第三方物流董兴林 (11-18周) 物流管理2018-1-2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>国际贸易侯贵生 (8-19周) 国际经济与贸易2020-1-2</t>
+          <t>国际贸易侯贵生 (8-18周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1270,7 +1340,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>政府及非营利组织会计崔树德 (11-19周) 会计学2019-1-2</t>
+          <t>政府及非营利组织会计崔树德 (11-17周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1340,7 +1410,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>普通化学马林政 (14-19周) 机械电子工程2021-4-6</t>
+          <t>普通化学马林政 (14-18周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -1348,7 +1418,11 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>无机化学付民 (17周) 应用化学2021-1</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>智能制造工程专业概论曹冲振,陈广庆,胡效东,李勇,孙静 (16-19周) 智能制造工程2021-1-2</t>
@@ -1367,7 +1441,11 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>消费者行为学宋平 (11-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr">
         <is>
           <t>互换性与机械制造基础王素玉 (8-17周) 工业工程2019-1-2</t>
@@ -1375,7 +1453,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>普通化学马林政 (14-19周) 机械电子工程2021-4-6</t>
+          <t>普通化学马林政 (14-18周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1394,7 +1472,11 @@
         </is>
       </c>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>普通化学（B）赵沛文 (17周) 机械设计制造及其自动化2021-3-4</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
@@ -1552,7 +1634,11 @@
           <t>普通化学贺正龙 (8-19周) 安全工程2020-5</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>财政学(A)陈昕 (17周) 金融学2020-1-2</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1588,8 +1674,16 @@
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>微观经济学（A）焦习燕 (17周) 国际经济与贸易(辅修)2020-1</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>微观经济学（A）焦习燕 (17周) 国际经济与贸易(辅修)2020-1</t>
+        </is>
+      </c>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
@@ -1605,7 +1699,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>技术经济学陈会英 (11-19周) 工商管理2019-1-2</t>
+          <t>技术经济学陈会英 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1622,7 +1716,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>经济法（C）陈金库 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1640,7 +1734,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>运筹学（B）辛宝贵 (11-19周) 电子商务2019-1-2</t>
+          <t>运筹学（B）辛宝贵 (11-18周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1652,17 +1746,17 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>经济法（C）陈金库 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>生物医用材料崔蓝月 (12-19周) 材料化学2018-1-2</t>
+          <t>生物医用材料崔蓝月 (12-18周) 材料化学2018-1-2</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>技术经济学陈会英 (11-19周) 工商管理2019-1-2</t>
+          <t>技术经济学陈会英 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1673,7 +1767,7 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>运筹学（B）辛宝贵 (11-19周) 电子商务2019-1-2</t>
+          <t>运筹学（B）辛宝贵 (11-18周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -1690,12 +1784,12 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr"/>
@@ -1711,16 +1805,8 @@
           <t>应用统计学马媛 (8-18周) 工商管理辅修 2020版</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>会计学(B)刘英姿 (12-19周) 工商管理辅修 2020版</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>会计学(B)刘英姿 (12-19周) 工商管理辅修 2020版</t>
-        </is>
-      </c>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1744,7 +1830,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1760,7 +1846,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 采矿工程2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 采矿工程2021-1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1768,7 +1854,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1835,7 +1921,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械张同环 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1872,7 +1958,11 @@
           <t>化学工程与工艺专业导论高军 (16-17周) 化学工程与工艺2021-1-3</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>化学工程与工艺专业导论徐冬梅 (17周) 化学工程与工艺2021-1-3</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
@@ -1896,7 +1986,7 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr">
         <is>
-          <t>破碎磨矿李琳 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>破碎磨矿李琳 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -1926,7 +2016,11 @@
           <t>J14-211室</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)孔昭莉 (4-18周) 地质工程2021-2</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
@@ -1939,7 +2033,11 @@
           <t>电路基础仉毅 (11-18周) 机械电子工程2020-3-4</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)王惠 (17周) 采矿工程2021-1</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>电工电子技术（A)高丽丽 (12-19周) 机械设计制造及其自动化2020-5-6</t>
@@ -2095,7 +2193,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）王路 (12-19周) 高分子材料与工程2021-1-3</t>
+          <t>计算机程序设计基础（Python语言）王路 (12-18周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2121,7 +2219,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）王路 (12-19周) 高分子材料与工程2021-1-3</t>
+          <t>计算机程序设计基础（Python语言）王路 (12-18周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2180,7 +2278,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)陈昕 (4-19周) 资源勘查工程2021-1</t>
+          <t>大学英语（A)(2-1)陈昕 (4-18周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2319,7 +2417,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)谭剑鸣 (4-19周) 机械电子工程2021-6</t>
+          <t>大学英语（A)(2-1)谭剑鸣 (4-18周) 机械电子工程2021-6</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2329,7 +2427,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)郭放 (4-19周) 地理信息科学2021-3</t>
+          <t>大学英语（A)(2-1)郭放 (4-18周) 地理信息科学2021-3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2345,7 +2443,11 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>普通化学（B）唐尧基 (17周) 机械设计制造及其自动化2021-2</t>
+        </is>
+      </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
@@ -2383,7 +2485,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>流体力学与流体机械吴蓬 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2465,18 +2567,14 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>机械制造技术基础杨俊茹 (8-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>普通化学（B）唐尧基 (12-19周) 机械设计制造及其自动化2021-2</t>
+          <t>普通化学（B）唐尧基 (12-18周) 机械设计制造及其自动化2021-2</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2536,7 +2634,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2553,12 +2651,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>消费者行为学宋平 (11-19周) 工商管理2019-1-2</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>生物医用材料崔蓝月 (12-19周) 材料化学2018-1-2</t>
+          <t>生物医用材料崔蓝月 (12-18周) 材料化学2018-1-2</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -2571,19 +2669,19 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>财政学(A)陈昕 (13-19周) 金融学2020-1-2</t>
+          <t>财政学(A)陈昕 (13-18周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>第三方物流董兴林 (11-19周) 物流管理2018-1-2</t>
+          <t>第三方物流董兴林 (11-18周) 物流管理2018-1-2</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>消费者行为学宋平 (11-19周) 工商管理2019-1-2</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2601,35 +2699,43 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>财政学(A)陈昕 (12-19周) 金融学2020-1-2</t>
+          <t>财政学(A)陈昕 (12-18周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>国际商法（A）刘本玲 (17周) 国际经济与贸易(辅修) 2019版</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>国际商法（A）刘本玲 (17周) 国际经济与贸易(辅修) 2019版</t>
+        </is>
+      </c>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr"/>
@@ -2686,7 +2792,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
@@ -2732,7 +2838,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>零件失效分析李敏 (11-18周) 金属材料工程2018-1-3</t>
+          <t>零件失效分析李敏 (11-12,14-18周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -2789,7 +2895,7 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>普通化学（B）赵沛文 (12-19周) 机械设计制造及其自动化2021-3-4</t>
+          <t>普通化学（B）赵沛文 (12-18周) 机械设计制造及其自动化2021-3-4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2869,7 +2975,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2881,18 +2987,18 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>破碎磨矿李琳 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>破碎磨矿李琳 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>生物工程学科前沿王博 (12-19周) 生物工程2020-1-2</t>
+          <t>生物工程学科前沿王博 (12-18周) 生物工程2020-1-2</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>催化化学陈伟 (11-19周) 应用化学2018-1-3</t>
+          <t>催化化学陈伟 (11-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2903,7 +3009,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2959,7 +3065,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 勘查技术与工程2021-1</t>
+          <t>大学英语（A)(2-1)张兴梅 (4-18周) 勘查技术与工程2021-1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -2994,7 +3100,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
@@ -3100,7 +3206,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>国际货物运输与保险焦习燕 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>国际货物运输与保险焦习燕 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3130,7 +3236,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>国际货物运输与保险焦习燕 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>国际货物运输与保险焦习燕 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3142,7 +3248,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>文献检索与论文写作刘露 (11-19周) 物流管理2019-1-2</t>
+          <t>文献检索与论文写作刘露 (11-18周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3177,11 +3283,15 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>会计信息系统刘超 (6-19周) 会计学(辅修) 2019版</t>
+          <t>会计信息系统刘超 (6-18周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>会计信息系统刘超 (17周) 会计学(辅修) 2019版</t>
+        </is>
+      </c>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
     </row>
@@ -3210,7 +3320,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>机械工程控制基础陈毕胜 (10-18周) 机械电子工程(留学生)2019</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -3232,7 +3342,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>工程力学姜兰越,李晓宇 (12-19周) 能源与动力工程2020-1-3</t>
+          <t>工程力学姜兰越,李晓宇 (12-18周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -3366,21 +3476,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>金融学(A)邢苗 (16-17周) 金融学2020-1-2</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>银行结算*邢苗 (16-17周) 金融学2019-1-2</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -3395,7 +3513,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="U34" t="inlineStr"/>
@@ -3444,7 +3562,11 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>经济法王彩霞 (17周) 投资学2019-1-2</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr">
         <is>
           <t>应用统计学（A）姜涛 (11-18周) 投资学2019-1-2</t>
@@ -3508,7 +3630,7 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -3516,12 +3638,12 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr"/>
@@ -3554,7 +3676,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
+          <t>大学英语（A)(2-1)李燕妮 (4-10,12-18周) 机械电子工程2021-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3575,19 +3697,19 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)徐科吉 (4-19周) 高分子材料与工程2021-3</t>
+          <t>大学英语（A)(2-1)徐科吉 (4-10,12-18周) 高分子材料与工程2021-3</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>数学物理方程王德营 (8-19周) 勘查技术与工程2020-1-2</t>
+          <t>数学物理方程王德营 (8-12,14-19周) 勘查技术与工程2020-1-2</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -3602,7 +3724,7 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -3665,7 +3787,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -3802,7 +3924,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>普通化学（B）赵沛文 (12-19周) 机械设计制造及其自动化2021-3-4</t>
+          <t>普通化学（B）赵沛文 (12-18周) 机械设计制造及其自动化2021-3-4</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3819,11 +3941,7 @@
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
@@ -3866,7 +3984,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -3927,7 +4045,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>金融经济学秦晓钰 (11-19周) 金融学2019-1-2</t>
+          <t>金融经济学秦晓钰 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4182,7 +4300,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -4278,7 +4396,7 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -4463,11 +4581,7 @@
           <t>过程装备控制技术及应用陈广庆 (11-18周) 过程装备与控制工程2018-1-3</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>数控自动编程于蓉蓉 (9-17周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
@@ -4528,7 +4642,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>安全工程专业导论孔彪 (12-19周) 安全工程2021-4</t>
+          <t>安全工程专业导论孔彪 (13-19周) 安全工程2021-4</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -4537,7 +4651,7 @@
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>安全工程专业导论孔彪 (12-19周) 安全工程2021-5</t>
+          <t>安全工程专业导论孔彪 (13-19周) 安全工程2021-5</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -4570,11 +4684,7 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>数控自动编程于蓉蓉 (9-17周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -4598,11 +4708,7 @@
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
@@ -4627,12 +4733,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>公司治理周志刚 (11-19周) 工商管理2018-1-2</t>
+          <t>公司治理周志刚 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4653,17 +4759,17 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (11-19周) 金融学2019-1-2</t>
+          <t>银行结算*邢苗 (11-17周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -4679,12 +4785,12 @@
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (11-19周) 金融学2019-1-2</t>
+          <t>银行结算*邢苗 (11-17周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
@@ -4876,7 +4982,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>空间数据库张蕾 (11-18周) 地理信息科学2020-3</t>
+          <t>空间数据库张蕾 (12-18周) 地理信息科学2020-3</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -4939,7 +5045,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械吴蓬 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -4948,7 +5054,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -4957,7 +5063,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -4966,7 +5072,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -4976,7 +5082,11 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>物理化学黄永清 (17周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+        </is>
+      </c>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
@@ -5011,17 +5121,13 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 应用化学2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>海洋地质学宋召军,许庆林 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
@@ -5154,7 +5260,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>普通化学（B）唐尧基 (12-19周) 机械设计制造及其自动化2021-2</t>
+          <t>普通化学（B）唐尧基 (12-18周) 机械设计制造及其自动化2021-2</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -5262,7 +5368,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5277,11 +5383,7 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>工程力学邱月 (7-18周) 金属材料工程2020-3-4</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
@@ -5322,7 +5424,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -5330,7 +5432,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5343,7 +5445,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>公司治理周志刚 (11-19周) 工商管理2018-1-2</t>
+          <t>公司治理周志刚 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5356,7 +5458,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -5369,7 +5471,7 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr">
         <is>
-          <t>有机化学（2-2）卢文欣 (11-19周) 化学工程与工艺2020-1-3</t>
+          <t>有机化学（2-2）卢文欣 (11-18周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -5416,7 +5518,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5550,7 +5652,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5567,12 +5669,12 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械吴蓬 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>金融经济学秦晓钰 (11-19周) 金融学2019-1-2</t>
+          <t>金融经济学秦晓钰 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -5584,7 +5686,7 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -5760,7 +5862,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5847,7 +5949,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械张同环 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -5881,12 +5983,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-4-6</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-4-6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-1-3</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-1-3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -5917,12 +6019,12 @@
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-4-6</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-4-6</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-1-3</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-1-3</t>
         </is>
       </c>
       <c r="U69" t="inlineStr"/>
@@ -6087,11 +6189,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -6142,7 +6240,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>催化化学陈伟 (11-19周) 应用化学2018-1-3</t>
+          <t>催化化学陈伟 (11-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -6150,7 +6248,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学孔霞 (4-12,14-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -6284,23 +6382,27 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>化学软件应用技术高猛 (12-19周) 应用化学2018-1-3</t>
+          <t>化学软件应用技术高猛 (12-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>有机化学（2-2）卢文欣 (11-19周) 化学工程与工艺2020-1-3</t>
+          <t>有机化学（2-2）卢文欣 (11-18周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>有机化学（2-2）卢文欣 (17周) 化学工程与工艺2020-1-3</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
@@ -6311,7 +6413,7 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -6319,7 +6421,7 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
@@ -6344,7 +6446,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）孙海滨 (12-19周) 新能源材料与器件2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）孙海滨 (12-18周) 新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6361,7 +6463,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>流体力学与流体机械张同环 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -6380,14 +6482,14 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）陈雪 (12-19周) 材料化学2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）陈雪 (12-18周) 材料化学2021-1-2</t>
         </is>
       </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）孙海滨 (12-19周) 新能源材料与器件2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）孙海滨 (12-18周) 新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -6405,7 +6507,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）陈雪 (12-19周) 材料化学2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）陈雪 (12-18周) 材料化学2021-1-2</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -6963,7 +7065,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-1</t>
+          <t>设计色彩(1-1)李宗源 (17-19周) 产品设计2021-1</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -7049,12 +7151,12 @@
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr">
         <is>
-          <t>人机工程学王晓娜 (11-19周) 产品设计2019-1-2</t>
+          <t>人机工程学王晓娜 (11-18周) 产品设计2019-1-2</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>人机工程学王晓娜 (11-19周) 产品设计2019-1-2</t>
+          <t>人机工程学王晓娜 (11-18周) 产品设计2019-1-2</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr"/>
@@ -7104,7 +7206,7 @@
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
+          <t>机械设计基础（A）陈修龙 (17-19周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>

--- a/excel/17.xlsx
+++ b/excel/17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK87"/>
+  <dimension ref="A1:AK82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,16 +755,18 @@
           <t>0304</t>
         </is>
       </c>
-      <c r="AD2" t="n">
-        <v>506</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>708</v>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0910</t>
-        </is>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0506</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0708</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>910</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
@@ -801,61 +803,57 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宏观经济学（C）李淑云 (10-17周) 物流管理2020-1-2</t>
+          <t>人力资源管理(A)周志刚 (8-19周) 工商管理2020-1-2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>物流战略管理崔巍 (11-18周) 物流管理2020-1-2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>工商管理学科前沿﹡方宏 (11-18周) 工商管理2018-1-2</t>
-        </is>
-      </c>
+          <t>ERP原理与应用(B)王书伟 (11-18周) 工商管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>劳动与社会保障学周志刚 (10-17周) 工商管理2018-1-2</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>品牌管理吕晓菲 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>宏观经济学（C）李淑云 (10-17周) 物流管理2020-1-2</t>
+          <t>创业管理马恒平 (10-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>海洋环境学赵艳云 (12-17周) 环境工程2020-1-4</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>ERP原理与应用(B)王书伟 (11-18周) 工商管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>人力资源管理(A)周志刚 (8-19周) 工商管理2020-1-2</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>劳动与社会保障学周志刚 (10-17周) 工商管理2018-1-2</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
-          <t>物流战略管理崔巍 (11-18周) 物流管理2020-1-2</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>工商管理学科前沿﹡方宏 (11-18周) 工商管理2018-1-2</t>
-        </is>
-      </c>
+          <t>经济博弈论张伟 (10-18周) 投资学2019-1-2</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>创业管理马恒平 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -880,85 +878,37 @@
           <t>J14-103室</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>环境工程专业导论刘音 (12-19周) 环境工程2021-3-4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)王惠 (17周) 应用化学2021-1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>金融经济学秦晓钰 (17周) 金融学2019-1-2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>消费者行为学宋平 (17单周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>劳动与社会保障学周志刚 (17周) 工商管理2018-1-2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>环境生态学唐小玲 (11-19周) 环境工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>自然灾害应急管理倪冠华 (15-20周) 安全工程（应急管理方向）2019</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>高分子化学王冬梅 (17周) 应用化学2019-1-3</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>结构设计原理孙宗军 (16-17周) 交通工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>劳动与社会保障学周志刚 (17周) 工商管理2018-1-2</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>技术经济学陈会英 (17周) 工商管理2019-1-2</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>安全工程专业导论贺正龙 (12-19周) 安全工程2021-2</t>
+          <t>流体力学陈平 (12-17周) 环境工程2020-1-2</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>工程概论周红敏 (10-17周) 工程力学2020-1-2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>结构设计原理孙宗军 (17周) 交通工程2019-1-2</t>
-        </is>
-      </c>
+          <t>计算机技术基础温兴林 (11-18周) 采矿工程2021-5-6</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
@@ -983,114 +933,118 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>公司治理于泉 (11-19周) 会计学2019-1-2</t>
-        </is>
-      </c>
+          <t>领导科学郝婷 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>应用统计学（A）姜涛 (11-18周) 投资学2019-1-2</t>
+          <t>中国对外贸易概论马风涛 (13-19周) 国际经济与贸易2021-1-2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>国际货物运输与保险焦习燕 (17周) 国际经济与贸易2019-1-2</t>
+          <t>微观经济学(A)任一鑫 (8-19周) 金融学2021-1-2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>港口与自贸区物流董兴林 (12-18周) 物流管理2020-1-2</t>
+          <t>经济法（C）陈金库 (10-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>应用统计学（B）赵峰 (11-18周) 会计学2019-1-2</t>
+          <t>国际贸易合同刘本玲 (11-19周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>国际货物运输与保险焦习燕 (17周) 国际经济与贸易2019-1-2</t>
+          <t>微观经济学（B）任一鑫 (11-18周) 物流管理2021-1-2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2020-1-2</t>
+          <t>市场营销学(A)金伟 (8-19周) 工商管理2020-1-2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>投资项目评估姜涛 (10-18周) 投资学2019-1-2</t>
+          <t>税法陈昕 (12-19周) 会计学2020-1-2</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>公司治理于泉 (11-19周) 会计学2019-1-2</t>
+          <t>网络营销（A）侯艳辉 (10-18周) 电子商务2019-1</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>微观经济学(A)任一鑫 (8-19周) 金融学2021-1-2</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>港口与自贸区物流董兴林 (12-18周) 物流管理2020-1-2</t>
+          <t>经济法（C）陈金库 (10-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>应用统计学（B）赵峰 (11-17周) 会计学2019-1-2</t>
+          <t>领导科学郝婷 (10-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>微观经济学（B）任一鑫 (11-18周) 物流管理2021-1-2</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
+          <t>市场营销学(A)金伟 (8-19周) 工商管理2020-1-2</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>投资项目评估姜涛 (10-18周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
-        </is>
-      </c>
+          <t>税法陈昕 (11-18周) 会计学2020-1-2</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
+          <t>金融学（B）邢苗 (10-17周) 国际经济与贸易(辅修)2019</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>微观经济学（A）任一鑫 (17周) 会计辅修 2020版</t>
-        </is>
-      </c>
+          <t>金融学（B）邢苗 (10-17周) 国际经济与贸易(辅修)2019</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>宏观经济学(B)刘红英 (11-18周) 会计学(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>宏观经济学(B)刘红英 (11-18周) 会计学(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>经济法（B）陈金库 (11-18周) 会计辅修 2020版</t>
+          <t>国际金融孙江永 (6-17周) 国际经济与贸易(辅修)2019</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>经济法（B）陈金库 (11-18周) 会计辅修 2020版</t>
+          <t>国际金融孙江永 (6-17周) 国际经济与贸易(辅修)2019</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr"/>
@@ -1108,87 +1062,79 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>无机化学李志超 (13-18周) 金属材料工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>材料物理性能朱慧灵 (10-18周) 金属材料工程2019-3-5</t>
-        </is>
-      </c>
+          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
+          <t>金属材料学姚树玉 (17周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>技术经济学陈会英 (17周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>遥感图像处理与应用朱金山 (11-19周) 测绘工程2018-3-4</t>
-        </is>
-      </c>
+          <t>材料科学基础 (A)宋强 (17周) 金属材料工程2020-3</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>材料物理性能李桂杰 (10-18周) 金属材料工程2019-1-2</t>
+          <t>计算机技术基础温兴林 (11-18周) 采矿工程2021-5-6</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (17周) 工商管理(社会体育指导与管理)2019</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
-        </is>
-      </c>
+          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>材料物理性能朱慧灵 (10-18周) 金属材料工程2019-3-5</t>
+          <t>材料科学基础 (A)宋强 (17周) 金属材料工程2020-3</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>物理化学杨静 (17周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>材料科学基础 (A)宋强 (17周) 金属材料工程2020-4</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>材料物理性能李桂杰 (10-18周) 金属材料工程2019-1-2</t>
+          <t>交通工程学靳露 (10-17周) 交通工程2020-1-3</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>无机化学李志超 (13-18周) 金属材料工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>文献检索与科技论文撰写崔蓝月 (17周) 材料化学2019-2</t>
-        </is>
-      </c>
+          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-1</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
-        </is>
-      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>材料科学基础 (A)宋强 (17周) 金属材料工程2020-4</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>成本会计张咏梅 (9-18周) 会计学(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>成本会计张咏梅 (9-18周) 会计学(辅修)2020</t>
+        </is>
+      </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
@@ -1209,83 +1155,43 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (17周) 安全工程2021-4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>计算机技术基础（VB.net）颜伟 (10-17周) 工业工程2020-1-2</t>
-        </is>
-      </c>
+          <t>期货与期权(双语)*周衍平 (11-19周) 金融学2019-1-2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)杨明 (17周) 地质工程2021-1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>矿山环境概论刘立民 (16-19周) 采矿工程2020-2</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>交通工程学靳露 (10-17周) 交通工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>工程概论张传明 (10-17周) 采矿工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>采矿工程导论顾士坦 (12-19周) 采矿工程2021-3-4</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>工程概论周红敏 (10-17周) 工程力学2020-1-2</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>工业环境工程王蕊 (10-17周) 工业工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>采矿工程制图李青海,赵金海 (12-18周) 采矿工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>矿山环境概论刘立民 (16-19周) 采矿工程2020-2</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>矿山环境概论张文泉 (16-19周) 采矿工程2020-3</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>工程概论王永萍 (10-17周) 工业工程2020-1-2</t>
-        </is>
-      </c>
+          <t>运筹学(B)刘兆霞 (11-18周) 工业工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr">
         <is>
-          <t>系统工程颜伟 (10-17周) 工业工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>工程概论张传明 (10-17周) 采矿工程2020-1-3</t>
-        </is>
-      </c>
+          <t>运筹学(B)刘兆霞 (11-18周) 工业工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
@@ -1310,29 +1216,21 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>政府及非营利组织会计崔树德 (11-17周) 会计学2019-1-2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>国际市场营销金伟 (10-18周) 国际经济与贸易2018-1-2</t>
-        </is>
-      </c>
+          <t>电子商务概论李堂军 (12-19周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>第三方物流董兴林 (11-18周) 物流管理2018-1-2</t>
+          <t>商业银行业务与经营王和平 (7-18周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>国际贸易侯贵生 (8-18周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>产业经济学刘鹏 (11-19周) 投资学2018-1-2</t>
+          <t>第三方物流运营与管理董兴林 (11-18周) 物流管理2020-1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1340,45 +1238,57 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>政府及非营利组织会计崔树德 (11-17周) 会计学2019-1-2</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>金融市场学*闻德美 (10-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
+          <t>第三方物流运营与管理董兴林 (11-18周) 物流管理2020-2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>国际市场营销金伟 (10-18周) 国际经济与贸易2018-1-2</t>
+          <t>商业银行业务与经营王和平 (9-18周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>国际贸易侯贵生 (8-19周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t>微观经济学(A)李淑云 (8-19周) 会计学2021-1</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>第三方物流运营与管理董兴林 (11-18周) 物流管理2020-1</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>产业经济学刘鹏 (11-19周) 投资学2018-1-2</t>
+          <t>电子商务概论李堂军 (12-19周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>第三方物流运营与管理董兴林 (11-18周) 物流管理2020-2</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>金融市场学*闻德美 (10-18周) 金融学2019-1-2</t>
+          <t>期货与期权闻德美 (11-19周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>国际会计准则(双语)张月玲 (10-17周) 会计学(辅修)2019</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>国际会计准则(双语)张月玲 (10-17周) 会计学(辅修)2019</t>
+        </is>
+      </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
@@ -1400,83 +1310,39 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>仓储管理与库存控制李美燕 (10-17周) 工业工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>电路基础仉毅 (11-18周) 机械电子工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>普通化学马林政 (14-18周) 机械电子工程2021-4-6</t>
-        </is>
-      </c>
+          <t>机械原理王明燕 (7-17单周) 机械设计制造及其自动化2020-5-6</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>机械原理王明燕 (7-17单周) 机械设计制造及其自动化2020-5-6</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>无机化学付民 (17周) 应用化学2021-1</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>智能制造工程专业概论曹冲振,陈广庆,胡效东,李勇,孙静 (16-19周) 智能制造工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>人力资源管理袁清和 (10-17周) 工业工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>仓储管理与库存控制李美燕 (10-17周) 工业工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
-          <t>消费者行为学宋平 (11-18周) 工商管理(社会体育指导与管理)2019</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>互换性与机械制造基础王素玉 (8-17周) 工业工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>普通化学马林政 (14-18周) 机械电子工程2021-4-6</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>C++语言程序设计施剑 (12-19周) 测绘工程2021-4-5</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>机器人学导论张明辉 (9-17周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>人力资源管理袁清和 (10-17周) 工业工程2019-1-2</t>
-        </is>
-      </c>
+          <t>机械原理王明燕 (7-17单周) 机械设计制造及其自动化2020-5-6</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>普通化学（B）赵沛文 (17周) 机械设计制造及其自动化2021-3-4</t>
-        </is>
-      </c>
+      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
@@ -1500,43 +1366,43 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>测绘专业英语陈允芳 (10-18周) 测绘工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>空间信息可视化柳林 (9-17周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>工程概论李英 (13-17周) 测绘工程2020-4-5</t>
+          <t>GIS软件工程刘冰 (17周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>工程概论李英 (12-17周) 测绘工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>空间信息可视化柳林 (17周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>空间信息可视化柳林 (9-17周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（Python语言）赵庆峰 (12-19周) 金属材料工程2021-1-4</t>
-        </is>
-      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
@@ -1560,28 +1426,52 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>计算机程序设计（Python）刘强 (10-17周) 地质工程2020-1-3</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>软件工程谢俊 (12-17周) 资源勘查工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>煤炭地质勘查魏久传 (11-17周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>海洋微体古生物学陈雷 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>地质灾害与防治施龙青 (8-17周) 地质工程2019-1</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>矿物学曹玉亭 (13-18周) 地质工程2021-1-2</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>煤炭地质勘查魏久传 (11-17周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>海洋微体古生物学陈雷 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>政治经济学赵友宝 (8-19周) 金融学2021-1-2班,国际经济与贸易2021-1-2</t>
+          <t>地质灾害与防治施龙青 (8-17周) 地质工程2019-1</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
@@ -1589,17 +1479,21 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>勘查技术与工程专业导论丁仁伟等 (12-19周) 勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>软件工程谢俊 (12-17周) 资源勘查工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr"/>
+          <t>矿物学曹玉亭 (13-18周) 地质工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>计算机程序设计（Python）刘强 (10-17周) 地质工程2020-1-3</t>
+        </is>
+      </c>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>GIS原理与应用张军建 (8-17周) 水文与水资源工程2019-1班,水文与水资源工程2019-1-2班,水文与水资源工程2019-2</t>
+        </is>
+      </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
@@ -1624,21 +1518,9 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>自然灾害应急管理倪冠华 (15-20周) 安全工程（应急管理方向）2019</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>普通化学贺正龙 (8-19周) 安全工程2020-5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>财政学(A)陈昕 (17周) 金融学2020-1-2</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1646,26 +1528,22 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>自然灾害应急管理倪冠华 (15-20周) 安全工程（应急管理方向）2019</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>普通化学贺正龙 (8-19周) 安全工程2020-5</t>
-        </is>
-      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>计算机技术基础张文泉 (11-18周) 采矿工程2021-1-2</t>
+        </is>
+      </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>安全工程专业导论杨文宇 (12-19周) 安全工程2021-3</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>计算机技术基础张文泉 (11-18周) 采矿工程2021-1-2</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
@@ -1674,16 +1552,8 @@
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>微观经济学（A）焦习燕 (17周) 国际经济与贸易(辅修)2020-1</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>微观经济学（A）焦习燕 (17周) 国际经济与贸易(辅修)2020-1</t>
-        </is>
-      </c>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
@@ -1699,112 +1569,96 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>技术经济学陈会英 (11-18周) 工商管理2019-1-2</t>
+          <t>Python程序设计*崔雪莲 (13-18周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>运筹学（B）辛宝贵 (11-18周) 电子商务2019-1-2</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>证券投资学(B)王和平 (11-19周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>微观经济学(A)李淑云 (10-19周) 会计学2021-1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>人才招聘与录用曲优 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>物流专业英语曾丽君 (10-18周) 物流管理2019-1-2</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>公共关系学马恒平 (11-18周) 工商管理2020-1-2</t>
+          <t>国际经济学（B）马风涛 (10-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>运筹学（B）辛宝贵 (11-18周) 电子商务2019-1-2</t>
+          <t>宏观经济学(A)孟文强 (9-19周) 国际经济与贸易2021-1-2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>财务管理（B）马红 (10-18周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
+          <t>Python程序设计*崔雪莲 (13-18周) 物流管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>人才招聘与录用曲优 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2019-1-2</t>
+          <t>移动商务技术与应用*张福平 (10-17周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>生物医用材料崔蓝月 (12-18周) 材料化学2018-1-2</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>技术经济学陈会英 (11-18周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>证券投资学(B)王和平 (11-19周) 工商管理2019-1-2</t>
-        </is>
-      </c>
+          <t>经济法（C）王彩霞 (13-18周) 金融学2020-1-2</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>运筹学（B）辛宝贵 (11-18周) 电子商务2019-1-2</t>
-        </is>
-      </c>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr">
         <is>
-          <t>物流专业英语曾丽君 (10-18周) 物流管理2019-1-2</t>
+          <t>网络营销（A）侯艳辉 (10-18周) 电子商务2019-1</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>财务管理（B）马红 (10-18周) 投资学2019-1-2</t>
+          <t>国际经济学（B）马风涛 (10-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
+          <t>能源贸易与能源合作赵友宝 (11-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
+          <t>能源贸易与能源合作赵友宝 (11-18周) 国际经济与贸易(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>跨境电子商务理论与实务李丽丽 (11-18周) 国际经济与贸易(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>跨境电子商务理论与实务李丽丽 (11-18周) 国际经济与贸易(辅修)2020</t>
+        </is>
+      </c>
       <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>应用统计学马媛 (8-18周) 工商管理辅修 2020版</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>应用统计学马媛 (8-18周) 工商管理辅修 2020版</t>
-        </is>
-      </c>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
@@ -1820,87 +1674,47 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）刘洪霞 (4-19周) 测绘工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）孟波 (4-19周) 地质工程2021-1-3</t>
-        </is>
-      </c>
+          <t>水文地质学谢道雷 (10-17周) 地质工程2020-2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
+          <t>制图基础（B）杨德星 (10-19周) 安全工程2021-1-3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>海洋地质学宋召军,许庆林 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）刘洪霞 (4-19周) 测绘工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)王惠 (4-18周) 采矿工程2021-1</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）孟波 (4-19周) 地质工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>大学生心理健康教育王桂清 (12-19周) 测绘工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）刘洪霞 (4-19周) 测绘工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>地貌学及第四纪地质学田红 (12-19周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>地质工程专业导论张伟杰等 (12-19周) 地质工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）孟波 (4-19周) 地质工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>大学生心理健康教育王桂清 (12-19周) 测绘工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>摄录像技术宋正国 (11-18周) 临班182 摄录像技术宋正国 (11-18周) 临班183</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>摄录像技术宋正国 (11-18周) 临班182 摄录像技术宋正国 (11-18周) 临班183</t>
+        </is>
+      </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
@@ -1921,79 +1735,63 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (12-18周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>工程材料赵媛媛 (12-19周) 能源与动力工程2020-1-3</t>
-        </is>
-      </c>
+          <t>应用化学学科前沿马林政 (16-19周) 应用化学2021-1-2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>工程制图及CAD技术逯振国 (7-8,10-17周) 交通运输2021-1-2</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>化工制图赵国明 (12-19周) 应用化学2019-1-3</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>矿物加工导论（2-1）吕宪俊 (12-19周) 矿物加工工程2019-1-3</t>
-        </is>
-      </c>
+          <t>精细化学品化学葛圣松 (10-15,17-19周) 应用化学2019-1-3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>有机化学（2-2）王翠珍 (11-19周) 化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>化学工程与工艺专业导论高军 (16-17周) 化学工程与工艺2021-1-3</t>
-        </is>
-      </c>
+          <t>生物化学李慧娟 (3-15,17-19周) 生物工程2020-1</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>化学工程与工艺专业导论徐冬梅 (17周) 化学工程与工艺2021-1-3</t>
+          <t>应用化学学科前沿马林政 (16-19周) 应用化学2021-1-2</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>矿物加工工程专业新生研讨课刘振学 (16-19周) 矿物加工工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>有机化学（2-1）陈勇 (10-19周) 应用化学2020-1-3</t>
+          <t>化工原理李敏 (1-15,17-19周) 应用化学2019-1-2</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>矿物加工导论（2-1）吕宪俊 (12-19周) 矿物加工工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr"/>
+          <t>精细化学品化学葛圣松 (10-15,17-19周) 应用化学2019-1-3</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>计算机技术基础王玉和 (11-18周) 采矿工程2021-3-4</t>
+        </is>
+      </c>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>工程概论周红敏 (10-17周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr">
         <is>
-          <t>破碎磨矿李琳 (11-18周) 矿物加工工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>大数据与机器学习刘洪强 (11-19周) 地理信息科学2018-1-3</t>
-        </is>
-      </c>
+          <t>计算机技术基础王玉和 (11-18周) 采矿工程2021-3-4</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
@@ -2016,55 +1814,35 @@
           <t>J14-211室</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)孔昭莉 (4-18周) 地质工程2021-2</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>智能制造工程专业概论曹冲振,陈广庆,胡效东,李勇,孙静 (16-19周) 智能制造工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>电路基础仉毅 (11-18周) 机械电子工程2020-3-4</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)王惠 (17周) 采矿工程2021-1</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>电工电子技术（A)高丽丽 (12-19周) 机械设计制造及其自动化2020-5-6</t>
-        </is>
-      </c>
+          <t>机械原理杨通 (7-17单周) 机械设计制造及其自动化2020-2-3</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>新能源利用工程基础冯太 (12-19周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>机械设计制造及其自动化专业导论于涛 (16-19周) 机械设计制造及其自动化2021-4-6</t>
-        </is>
-      </c>
+          <t>工程材料王凤芹 (9,12-18周) 智能制造工程2020-3</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>电工电子技术（A)高丽丽 (12-19周) 机械设计制造及其自动化2020-5-6</t>
+          <t>工程材料姜兰越,刘培坤 (9,12-18周) 智能制造工程2020-1-2</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>电路基础仉毅 (11-18周) 机械电子工程2020-3-4</t>
+          <t>机械原理杨通 (7-17单周) 机械设计制造及其自动化2020-2-3</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
@@ -2074,13 +1852,17 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>电工电子技术（A)高丽丽 (12-19周) 机械设计制造及其自动化2020-5-6</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr"/>
+          <t>工程材料王凤芹 (9,12-18周) 智能制造工程2020-3</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>机械原理杨通 (7-17单周) 机械设计制造及其自动化2020-2-3</t>
+        </is>
+      </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>新能源利用工程基础冯太 (12-19周) 能源与动力工程2021-1-3</t>
+          <t>工程材料姜兰越,刘培坤 (9,12-18周) 智能制造工程2020-1-2</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr"/>
@@ -2105,24 +1887,28 @@
           <t>J14-213室</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>能源与动力工程专业导论王建伟 (16-19周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>工程制图及CAD技术逯振国 (12-19周) 交通工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>普通化学孙记夫 (14-19周) 机械电子工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>机械原理陈修龙 (7-17单周) 机械设计制造及其自动化2020-4</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2130,33 +1916,37 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>电路基础吴清收 (11-18周) 机械电子工程2020-5-6</t>
+          <t>期货与期权(双语)*周衍平 (11-19周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>工程制图及CAD技术逯振国 (12-19周) 交通工程2021-1-3</t>
+          <t>机械原理陈修龙 (7-17单周) 机械设计制造及其自动化2020-4</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>普通化学孙记夫 (14-19周) 机械电子工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>能源与动力工程专业导论王建伟 (16-19周) 能源与动力工程2021-1-3</t>
+          <t>微观经济学(A)陈爱萍 (8-17周) 会计学2021-2</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr">
         <is>
-          <t>机械设计制造及其自动化专业导论于涛 (16-19周) 机械设计制造及其自动化2021-4-6</t>
+          <t>机械原理陈修龙 (7-17单周) 机械设计制造及其自动化2020-4</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr"/>
@@ -2179,68 +1969,64 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>J14-219室</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）卫永琴 (10-18周) 金属材料工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>J14-223室</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>水文学原理张升堂 (11-18周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>矿产资源勘查王泽利 (11-17周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）王路 (12-18周) 高分子材料与工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>遥感地质学刘一霖 (11-17周) 水文与水资源工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>工程水文学高宗军,张彧齐 (8-17周) 水文与水资源工程2019-1-2</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）马进 (11-18周) 高分子材料与工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（Python语言）赵庆峰 (12-19周) 金属材料工程2021-1-4</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）卫永琴 (10-18周) 金属材料工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>矿产资源勘查王泽利 (11-17周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）王路 (12-18周) 高分子材料与工程2021-1-3</t>
+          <t>水文学原理张升堂 (11-18周) 水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>电工电子技术（B）马进 (11-18周) 高分子材料与工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
+          <t>工程水文学高宗军,张彧齐 (8-17周) 水文与水资源工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>遥感地质学刘一霖 (11-17周) 水文与水资源工程2019-1-2</t>
+        </is>
+      </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）卫永琴 (10-18周) 金属材料工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）马进 (11-18周) 高分子材料与工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
@@ -2260,68 +2046,68 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>J14-221室</t>
+          <t>J14-302室</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大数据与机器学习刘洪强 (11-19周) 地理信息科学2018-1-3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>水文地质学张伟杰 (10-17周) 地质工程2020-3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>投资决策姜涛 (10-18周) 投资学2019-1-2</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C语言）王秀芳 (7-18周) 环境工程2021-1-4</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)陈昕 (4-18周) 资源勘查工程2021-1</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>地球化学勘探冯乔 (12-17周) 资源勘查工程2019-2</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>地球化学勘探冯乔 (12-17周) 资源勘查工程2019-2</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>遥感图像处理与应用肖兴媛 (11-19周) 测绘工程2018-1-2</t>
+          <t>投资决策姜涛 (10-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>地球化学勘探冯乔 (12-17周) 资源勘查工程2019-2</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（2-1）丁长青 (8-19周) 遥感科学与技术2021-1-3</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>遥感图像处理与应用朱金山 (11-19周) 测绘工程2018-3-4</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>地图学概论郭斌 (12-19周) 遥感科学与技术2020-1-3</t>
-        </is>
-      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>数字信号处理罗宇 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>技术经济牛海丽 (11-18周) 临班25</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>技术经济牛海丽 (11-18周) 临班25</t>
+        </is>
+      </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
@@ -2337,7 +2123,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>J14-223室</t>
+          <t>J14-303室</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2349,18 +2135,14 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>流体力学宋立英 (10-17周) 环境工程2020-3-4</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>软件工程谢俊 (14-17周) 资源勘查工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>地貌学及第四纪地质学田红 (11-18周) 地质工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -2369,11 +2151,7 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>工程概论孙凌志 (10-17周) 地质工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
@@ -2394,61 +2172,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>J14-302室</t>
+          <t>J14-304室</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>地貌学及第四纪地质学田红 (11-18周) 地质工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）王芳 (4-19周) 遥感科学与技术2021-1-3</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)谭剑鸣 (4-18周) 机械电子工程2021-6</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>变质岩岩石学孔凡梅 (13-18周) 资源勘查工程2020-1</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)郭放 (4-18周) 地理信息科学2021-3</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>工程材料与热加工工艺孙静 (11-18周) 机械电子工程(留学生)2020</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）王芳 (4-19周) 遥感科学与技术2021-1-3</t>
-        </is>
-      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>普通化学（B）唐尧基 (17周) 机械设计制造及其自动化2021-2</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>工程材料与热加工工艺孙静 (11-18周) 机械电子工程(留学生)2020</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
@@ -2467,70 +2225,90 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>J14-303室</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>J14-305室</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>应用统计学（B）马媛 (12-19周) 金融学2020-1-2</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>海洋资源调查技术张林林 (14-18周) 环境工程（海洋环境方向）2018</t>
+          <t>运筹学张杰 (8-19周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>环境工程专业导论周广柱 (12-19周) 环境工程2021-1-2</t>
+          <t>基础会计李芳 (7-17周) 会计学2021-1-2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (11-18周) 矿物加工工程2019-1-3</t>
+          <t>战略管理（A）方宏 (10-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>开采沉陷与环境治理胡术刚 (15-19周) 环境工程2018-1-3</t>
+          <t>运筹学(D)饶卫振 (10-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>普通化学陈金射 (8-19周) 安全工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>海洋资源调查技术张林林 (14-18周) 环境工程（海洋环境方向）2018</t>
+          <t>应用统计学（B）马媛 (12-19周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>海洋生物资源评估邱日 (10-18周) 环境工程（海洋环境方向）2018</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>基础会计李芳 (9-17周) 会计学2021-1-2</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>成本会计马红 (10-19周) 会计学2020-1-2</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>商品学概论刘本玲 (11-18周) 国际经济与贸易2021-1-2</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>战略管理（A）方宏 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>运筹学(D)饶卫振 (10-18周) 金融学2019-1-2</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>开采沉陷与环境治理胡术刚 (15-19周) 环境工程2018-1-3</t>
+          <t>运筹学张杰 (8-19周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>宏观经济学(A)孟文强 (8-19周) 国际经济与贸易2021-1-2</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>海洋生物资源评估邱日 (10-18周) 环境工程（海洋环境方向）2018</t>
+          <t>商品学概论刘本玲 (11-18周) 国际经济与贸易2021-1-2</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>安全工程专业导论王刚 (12-19周) 安全工程2021-1</t>
+          <t>成本会计马红 (10-19周) 会计学2020-1-2</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr"/>
@@ -2542,8 +2320,16 @@
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>人力资源管理（A）韩帅 (7-18周) 工商管理(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>人力资源管理（A）韩帅 (7-18周) 工商管理(辅修)2020</t>
+        </is>
+      </c>
       <c r="AK22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2552,64 +2338,56 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>J14-304室</t>
+          <t>J14-306室</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>机械电子工程专业导论曹连民,王成龙,张强,张媛,张鑫 (16-19周) 机械电子工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C语言）仲惟燕 (13-18周) 机械电子工程2020-3-4</t>
-        </is>
-      </c>
+          <t>物流系统仿真姜力文 (13-18周) 物流管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>地球化学勘探韩文学,林玉祥 (12-17周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>普通化学（B）唐尧基 (12-18周) 机械设计制造及其自动化2021-2</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>机械电子工程专业导论曹连民,王成龙,张强,张媛,张鑫 (16-19周) 机械电子工程2021-1-2</t>
+          <t>物流系统仿真姜力文 (13-18周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（C语言）仲惟燕 (13-18周) 机械电子工程2020-3-4</t>
+          <t>管理学研究方法（A）杨珍花 (10-18周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（C语言）高峰 (13-18周) 机械电子工程2020-5-6</t>
+          <t>地球化学勘探韩文学,林玉祥 (12-17周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>普通化学陈金射 (8-19周) 安全工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C语言）高峰 (13-18周) 机械电子工程2020-5-6</t>
-        </is>
-      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>管理学研究方法（A）杨珍花 (10-18周) 物流管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
@@ -2629,115 +2407,55 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>J14-305室</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>商务英语口语(全英文课程)*于晓燕 (10-17周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>微观经济学(A)陈爱萍 (8-19周) 国际经济与贸易2021-2</t>
-        </is>
-      </c>
+          <t>J14-307室</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>消费者行为学宋平 (11-18周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>生物医用材料崔蓝月 (12-18周) 材料化学2018-1-2</t>
-        </is>
-      </c>
+          <t>材料科学基础 (A)谢鲲 (17周) 金属材料工程2020-1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>工商管理专业英语﹡马媛 (12-19周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>财政学(A)陈昕 (13-18周) 金融学2020-1-2</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>第三方物流董兴林 (11-18周) 物流管理2018-1-2</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>消费者行为学宋平 (11-18周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>商务英语口语(全英文课程)*于晓燕 (10-17周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
+          <t>材料科学基础 (A)谢鲲 (17周) 金属材料工程2020-1</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
-          <t>工商管理专业英语﹡马媛 (11-19周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>财政学(A)陈昕 (12-18周) 金融学2020-1-2</t>
-        </is>
-      </c>
+          <t>电工电子技术（B）袁方 (10,12-13,16-18周) 新能源材料与器件2020-1-2</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>国际商法（A）刘本玲 (17周) 国际经济与贸易(辅修) 2019版</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>国际商法（A）刘本玲 (17周) 国际经济与贸易(辅修) 2019版</t>
-        </is>
-      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
-        </is>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
-        </is>
-      </c>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2746,13 +2464,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>J14-306室</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>J14-309室</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工程概论周红敏 (10-17周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（C语言）刘志海 (12-19周) 机械电子工程(留学生)2020</t>
+          <t>细胞工程邹玉红 (10-18周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2760,17 +2482,25 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）武波 (4-19周) 机械电子工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>采选冶概论刘振学 (11-18周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>药物学基础邹玉红 (11-19周) 生物工程2019-1-2</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C语言）鲁法明 (12-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>变质岩岩石学王淞杰 (13-18周) 资源勘查工程2020-2</t>
+          <t>细胞工程邹玉红 (10-18周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -2778,23 +2508,15 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）武波 (4-19周) 机械电子工程2021-1-3</t>
+          <t>药物学基础邹玉红 (11-19周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）武波 (4-19周) 机械电子工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
-        </is>
-      </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
@@ -2815,59 +2537,43 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>J14-307室</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>无机化学邱鹏 (13-18周) 金属材料工程2021-3-4</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>J14-310室</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>微观经济学(A)陈爱萍 (8-19周) 会计学2021-2</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>无机化学张广心 (13-18周) 新能源材料与器件2021-1</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>零件失效分析李敏 (11-12,14-18周) 金属材料工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>无机化学邱鹏 (13-18周) 金属材料工程2021-3-4</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>国际经济合作*李淑云 (10-18周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>等离子技术及应用王淑峰 (10-17周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>无机化学张广心 (13-18周) 新能源材料与器件2021-1</t>
-        </is>
-      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>零件失效分析李敏 (11-18周) 金属材料工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>国际经济合作*李淑云 (10-18周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
@@ -2888,54 +2594,54 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>J14-308室</t>
+          <t>J14-311室</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>普通化学（B）赵沛文 (12-18周) 机械设计制造及其自动化2021-3-4</t>
+          <t>计算机程序设计基础（C语言)聂志峰 (10-17周) 智能制造工程2021-1-2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>普通化学（B）路广 (12-19周) 机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>普通化学（B）黄仁和 (12-19周) 机械设计制造及其自动化2021-1</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>机械设计制造及其自动化专业导论王全为 (16-19周) 机械设计制造及其自动化2021-1-3</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>普通化学柏中朝 (11-18周) 能源与动力工程2021-1-3</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C语言)聂志峰 (10-17周) 智能制造工程2021-1-2</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>普通化学（B）路广 (12-19周) 机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>普通化学柏中朝 (11-18周) 能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>普通化学（B）黄仁和 (12-19周) 机械设计制造及其自动化2021-1</t>
+          <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr"/>
@@ -2957,73 +2663,57 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>J14-309室</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）王翠珍 (10-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
+          <t>J14-312室</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（VB）李桂江 (12-19周) 生物工程2020-1-2</t>
+          <t>经济法（C）王彩霞 (11-18周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>高分子化学王庆昭 (11-19周) 应用化学2019-1-3</t>
+          <t>运输与配送管理于灏 (11-19周) 物流管理2019-2</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>破碎磨矿李琳 (11-18周) 矿物加工工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>生物工程学科前沿王博 (12-18周) 生物工程2020-1-2</t>
+          <t>商业银行会计孙玉红 (11-18周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>催化化学陈伟 (11-18周) 应用化学2018-1-3</t>
+          <t>运输与配送管理于灏 (11-19周) 物流管理2019-1</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>应用化学专业新生研讨课路广 (16-17周) 应用化学2021-1-2</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>高分子化学王庆昭 (11-19周) 应用化学2019-1-3</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr"/>
+          <t>微观经济学(A)陶敏 (8-19周) 工商管理2021-1-2</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>品牌管理吕晓菲 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr">
         <is>
-          <t>生物工程研究方法迟向群 (12-19周) 生物工程2020-1-2</t>
+          <t>商业银行会计孙玉红 (11-18周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr"/>
@@ -3046,63 +2736,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>J14-310室</t>
+          <t>J14-313室</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>投资银行学孟科学 (10-18周) 投资学2018-1-2</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-18周) 勘查技术与工程2021-1</t>
+          <t>塑料助剂合成与应用王忠卫 (10-17周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>数学物理方程与特殊函数王敏 (11-18周) 地质工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>投资银行学孟科学 (10-18周) 投资学2018-1-2</t>
-        </is>
-      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
-        </is>
-      </c>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
@@ -3123,58 +2785,54 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>J14-311室</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>机械电子工程专业导论曹连民,王成龙,张强,张媛,张鑫 (16-19周) 机械电子工程2021-5-6</t>
-        </is>
-      </c>
+          <t>J14-314室</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>晶体光学与光性矿物学周振柱 (13-17周) 资源勘查工程2021-3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>计算机程序设计基础 （C语言）张华宇 (16-19周) 能源与动力工程2021-1-3</t>
+          <t>晶体光学与光性矿物学孔凡梅 (13-17周) 资源勘查工程2021-1-2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>电工电子技术（A)孟秀芝 (12-19周) 机械设计制造及其自动化2020-3-4</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>地球化学勘探刘金庆 (12-17周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>机械电子工程专业导论曹连民,王成龙,张强,张媛,张鑫 (16-19周) 机械电子工程2021-5-6</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>流体力学陈平 (10-17周) 环境工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>计算机程序设计基础 （C语言）张华宇 (16-19周) 能源与动力工程2021-1-3</t>
+          <t>地球化学勘探刘金庆 (12-17周) 资源勘查工程2019-1</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>电工电子技术（A)孟秀芝 (12-19周) 机械设计制造及其自动化2020-3-4</t>
+          <t>地球化学勘探刘金庆 (12-17周) 资源勘查工程2019-1</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>电工电子技术（A)孟秀芝 (12-19周) 机械设计制造及其自动化2020-3-4</t>
-        </is>
-      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -3196,84 +2854,48 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>J14-312室</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>应用统计学(A)陶敏 (11-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-316室</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>国际货物运输与保险焦习燕 (11-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>当代中国经济专题*李丽丽,孟文强,孙江永,赵金凯 (11-18周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
+          <t>计算机程序设计(VF)任艳伟 (13-18周) 会计学2020-1-2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>组织行为学(A)张学睦 (11-18周) 工商管理2020-1-2</t>
+          <t>移动商务技术与应用*张福平 (10-17周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>宏观经济学(B)陈爱萍 (11-18周) 工商管理2020-1-2</t>
+          <t>经济博弈论张伟 (10-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>应用统计学(A)陶敏 (11-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>国际货物运输与保险焦习燕 (11-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>软件工程王书伟 (10-18周) 电子商务2019-1-2</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>文献检索与论文写作刘露 (11-18周) 物流管理2019-1-2</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
-          <t>组织行为学(A)张学睦 (11-18周) 工商管理2020-1-2</t>
+          <t>计算机程序设计(VF)任艳伟 (13-18周) 会计学2020-1-2</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>应用统计学(A)陶敏 (11-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>软件工程王书伟 (10-18周) 电子商务2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>宏观经济学(B)陈爱萍 (11-18周) 工商管理2020-1-2</t>
-        </is>
-      </c>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
@@ -3281,17 +2903,9 @@
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>会计信息系统刘超 (6-18周) 会计学(辅修) 2019版</t>
-        </is>
-      </c>
+      <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>会计信息系统刘超 (17周) 会计学(辅修) 2019版</t>
-        </is>
-      </c>
+      <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
     </row>
@@ -3301,64 +2915,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>J14-313室</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>工程力学姜兰越,李晓宇 (12-19周) 能源与动力工程2020-1-3</t>
-        </is>
-      </c>
+          <t>J14-318室</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>热电联产孔祥强 (9-17周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>消费者行为学宋平 (11-18周) 工商管理(社会体育指导与管理)2019</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>地球化学魏友卿 (8-17周) 水文与水资源工程2019-1-2</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>热工控制系统陈毕胜 (9-17周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>热电联产孔祥强 (9-17周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>工程力学姜兰越,李晓宇 (12-18周) 能源与动力工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>地球化学魏友卿 (8-17周) 水文与水资源工程2019-1-2</t>
+        </is>
+      </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>机械设计制造及其自动化专业导论王全为 (16-19周) 机械设计制造及其自动化2021-1-3</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>热工控制系统陈毕胜 (9-17周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
@@ -3378,80 +2968,44 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>J14-314室</t>
+          <t>J14-319室</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>变质岩岩石学曹玉亭 (13-18周) 资源勘查工程2020-3</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>军事理论张明光 (4-19周) 安全工程2021-3-5</t>
+          <t>油气田勘探林玉祥 (11-17周) 资源勘查工程2019-1-3</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）郑艳琳 (4-19周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
+          <t>形势与政策（4-4）邱楚珈 (13-15,17周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>第四纪地质学刘金庆,宋召军 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>变质岩岩石学曹玉亭 (13-18周) 资源勘查工程2020-3</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>工程地质学苗佳丽 (9-19周) 水文与水资源工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）郑艳琳 (4-19周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>油气田勘探林玉祥 (11-17周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>第四纪地质学刘金庆,宋召军 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）郑艳琳 (4-19周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>地球物理测井杨思通,张涛 (9-19周) 勘查技术与工程2019-2</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>工程地质学苗佳丽 (9-19周) 水文与水资源工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
@@ -3471,60 +3025,56 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>J14-316室</t>
+          <t>J14-320室</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+          <t>生产运作与管理李美燕 (10-17周) 工业工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>机械设计基础（B）姜慧 (11-18周) 工业工程2020-1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>运输与配送管理于灏 (11-19周) 物流管理2019-1</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>金融学(A)邢苗 (16-17周) 金融学2020-1-2</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>银行结算*邢苗 (16-17周) 金融学2019-1-2</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
+          <t>生产运作与管理李美燕 (10-17周) 工业工程2021-1-2</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>财政与金融(B)聂国栋 (10-18周) 工商管理2019-1-2</t>
-        </is>
-      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>机械设计基础（B）姜慧 (11-18周) 工业工程2020-1</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>运输与配送管理于灏 (11-19周) 物流管理2019-2</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>财政与金融(B)聂国栋 (10-18周) 工商管理2019-1-2</t>
-        </is>
-      </c>
+      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
@@ -3544,7 +3094,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>J14-318室</t>
+          <t>J14-321室</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -3558,31 +3108,23 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>地史学周长付 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>经济法王彩霞 (17周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>应用统计学（A）姜涛 (11-18周) 投资学2019-1-2</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>经济学研究方法概论*赵金凯 (11-18周) 金融学2020-1-2</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr">
         <is>
-          <t>宏观经济学(B)李淑云 (11-18周) 会计学2020-1-2</t>
+          <t>地史学周长付 (12-19周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr"/>
@@ -3605,48 +3147,84 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>J14-319室</t>
+          <t>J14-323室</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>土壤物理学刘强 (8-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>工程与环境物探张金伟 (9-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>基础工程与地基处理刘强 (8-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>地质灾害与防治邱梅 (8-17周) 地质工程2019-2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>工程与环境物探张金伟 (9-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>海洋工程地质学苗佳丽 (8-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>土壤物理学刘强 (8-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr"/>
+          <t>地质灾害与防治邱梅 (8-17周) 地质工程2019-2</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>基础工程与地基处理刘强 (8-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>GIS原理与应用张军建 (8-17周) 水文与水资源工程2019-1班,水文与水资源工程2019-1-2班,水文与水资源工程2019-2</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>基础工程与地基处理刘强 (16-17周) 地质工程2019-1-3</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr"/>
+          <t>工程与环境物探张金伟 (9-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>海洋工程地质学苗佳丽 (8-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
@@ -3666,30 +3244,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>J14-320室</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>海洋调查方法刘金庆 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-10,12-18周) 机械电子工程2021-2</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>数学物理方程王德营 (8-19周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>J14-324室</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>机械原理李学艺 (7-17单周) 机械设计制造及其自动化2020-1</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>高光谱遥感张邻晶 (13-17周) 遥感科学与技术2019-1-3</t>
+          <t>工程测试与信号处理刘廷瑞 (5-9,14-17周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -3697,36 +3267,32 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)徐科吉 (4-10,12-18周) 高分子材料与工程2021-3</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>机械原理李学艺 (7-17单周) 机械设计制造及其自动化2020-1</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>学科前沿（Ⅰ）李晓宇 (14-17周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>数学物理方程王德营 (8-12,14-19周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
+          <t>工程测试与信号处理刘廷瑞 (5-9,14-17周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
-        </is>
-      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>机械原理李学艺 (7-17单周) 机械设计制造及其自动化2020-1</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
@@ -3747,63 +3313,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>J14-321室</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）宋治涛 (4-19周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
+          <t>J14-326室</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）宋治涛 (4-19周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>过程设备设计杨兴华 (4-9,14-17周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）宋治涛 (4-19周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）宋治涛 (4-19周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>过程设备设计杨兴华 (4-9,14-17周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）宋治涛 (4-19周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）宋治涛 (4-19周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
@@ -3824,66 +3366,58 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>J14-323室</t>
+          <t>J14-330室</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>金融学（B）聂国栋 (12-19周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>海洋地球物理支鹏遥 (13-18周) 勘查技术与工程2019-1-2</t>
+          <t>审计学（A）刘英姿 (6-19周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>海洋地球物理支鹏遥 (13-18周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>工程概论孙凌志 (12-17周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+          <t>世界经济概论曲越 (12-19周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>金融学（B）聂国栋 (12-19周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>审计学（A）刘英姿 (7-19周) 会计学2019-1-2</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>非常规天然气地质学张晓阳 (9-17周) 资源勘查工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>海洋地球物理支鹏遥 (13-18周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>水文与水资源工程专业导论邓清海等 (12-19周) 水文与水资源工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr">
         <is>
-          <t>非常规天然气地质学张晓阳 (9-17周) 资源勘查工程2018-1-3</t>
+          <t>世界经济概论曲越 (12-19周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>工程概论孙凌志 (10-17周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
@@ -3901,45 +3435,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>J14-324室</t>
+          <t>J14-334室</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>机械制造技术基础（C）黄为民 (11-19周) 机械电子工程2018-4-5</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>数字测图原理与方法王健 (12-19周) 遥感科学与技术2021-1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C语言）仲惟燕 (13-18周) 机械电子工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>普通化学（B）赵沛文 (12-18周) 机械设计制造及其自动化2021-3-4</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>机械制造技术基础（C）黄为民 (11-19周) 机械电子工程2018-4-5</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C语言）仲惟燕 (13-18周) 机械电子工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -3966,56 +3484,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>J14-326室</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>电路基础吴清收 (11-18周) 机械电子工程2020-5-6</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>过程装备成套技术姜兰越,刘培坤 (11-18周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
+          <t>J14-338室</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>工程概论史卫平 (10-17周) 高分子材料与工程2020-1-3</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>机械电子工程专业导论曹连民,王成龙,张强,张媛,张鑫 (16-19周) 机械电子工程2021-3-4</t>
-        </is>
-      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>过程装备成套技术姜兰越,刘培坤 (11-18周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>机械电子工程专业导论曹连民,王成龙,张强,张媛,张鑫 (16-19周) 机械电子工程2021-3-4</t>
-        </is>
-      </c>
+      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
@@ -4035,60 +3533,64 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>J14-330室</t>
+          <t>J14-340室</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国际投资学孙玉红 (10-18周) 投资学2018-1-2</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>金融经济学秦晓钰 (11-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
+          <t>有机化学（2-1）高登征 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>国际经贸报刊文献选读曲越 (10-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>电工电子技术（B）马进 (11-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>工程概论王永萍 (10-15,17-18周) 生物工程2020-1-2</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>物理化学邵谦 (4-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>经济博弈论张伟 (12-19周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>有机化学（2-1）高登征 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>国际经贸报刊文献选读曲越 (10-18周) 国际经济与贸易2019-1-2</t>
+          <t>工程概论王永萍 (10-15,17-18周) 生物工程2020-1-2</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>物理化学邵谦 (4-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>水文地球化学任加国 (10-19周) 水文与水资源工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>经济博弈论张伟 (12-19周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）马进 (11-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
@@ -4108,66 +3610,62 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>J14-334室</t>
+          <t>J14-342室</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>C++语言程序设计刘如飞 (4-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>计算机图形学常乐 (12-19周) 测绘工程2020-3-4</t>
-        </is>
-      </c>
+          <t>金属材料学王淑峰 (17周) 金属材料工程2019-5</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>分析化学李硕琦 (8-19周) 材料化学2020-1</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>地理信息系统原理与应用张蕾 (13-19周) 测绘工程2019-2</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>空间数据库闫金凤 (11-18周) 地理信息科学2020-1-2</t>
-        </is>
-      </c>
+          <t>结构化学孙海清 (11-18周) 新能源材料与器件2020-1</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>计算机图形学常乐 (13-19周) 测绘工程2020-3-4</t>
+          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-3</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>地理信息系统原理与应用张蕾 (8-19周) 测绘工程2019-2</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>高光谱遥感张邻晶 (10-17周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-2</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>分析化学李硕琦 (15-19周) 材料化学2020-1</t>
+        </is>
+      </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr">
         <is>
-          <t>工程概论李英 (13-17周) 测绘工程2020-1-3</t>
+          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-2</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>空间数据库闫金凤 (11-18周) 地理信息科学2020-1-2</t>
+          <t>结构化学孙海清 (11-18周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr"/>
@@ -4189,80 +3687,68 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>J14-336室</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+          <t>J14-405室</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金融工程*尘娜 (11-19周) 投资学2019-1-2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>投资银行学孟科学 (10-18周) 金融学2019-1-2</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>管理学(B)（双语）郑玉洁 (12-19周) 工业工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>矿山环境概论张文泉 (16-19周) 采矿工程2020-3</t>
+          <t>ERP原理与应用(B)王松 (11-17周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>计算机技术基础曾青冬 (12-19周) 工程力学2021-1-2</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>新能源工程概论单清林 (16-19周) 采矿工程2020-1-6</t>
+          <t>金融工程*尘娜 (11-19周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>系统工程颜伟 (10-17周) 工业工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>文献检索与论文写作刘露 (11-18周) 物流管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>投资银行学孟科学 (10-18周) 金融学2019-1-2</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>采矿工程制图孟昭胜,秦忠诚 (12-18周) 采矿工程2020-4-6</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>矿山环境概论赵金海 (16-19周) 采矿工程2020-6</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>国际贸易合同刘本玲 (11-19周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>管理学(B)（双语）郑玉洁 (12-19周) 工业工程2021-1-2</t>
+          <t>ERP原理与应用(B)王松 (11-17周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>工程概论任英伟 (10-17周) 采矿工程2020-4-6</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>有机化学（2-2）王翠珍 (11-19周) 化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr">
         <is>
-          <t>计算机技术基础曾青冬 (12-19周) 工程力学2021-1-2</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>工程概论王永萍 (10-17周) 工业工程2020-1-2</t>
-        </is>
-      </c>
+          <t>文献检索与论文写作刘露 (11-18周) 物流管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
@@ -4282,7 +3768,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>J14-338室</t>
+          <t>J14-406室</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -4290,56 +3776,32 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>环境风险评价阚渝姣 (15-19周) 环境工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>材料腐蚀与防护曾荣昌 (10-17周) 材料化学2019-1-2</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>城镇污水处理厂运营管理冯月 (15-19周) 环境工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>环境生态学唐小玲 (11-19周) 环境工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>工程制图及CAD技术逯振国 (7-8,10-17周) 交通运输2021-1-2</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>材料腐蚀与防护曾荣昌 (10-17周) 材料化学2019-1-2</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>环境风险评价阚渝姣 (15-19周) 环境工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>城镇污水处理厂运营管理冯月 (15-19周) 环境工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>环境生态学王金凤 (11-19周) 环境工程2019-3</t>
-        </is>
-      </c>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
@@ -4359,34 +3821,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>J14-340室</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）陈勇 (10-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
+          <t>J14-407室</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>实验设计与数据处理吕英海 (10-18周) 生物工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>化工设计概论高登征 (11-18周) 生物工程2019-1-2</t>
-        </is>
-      </c>
+          <t>材料表面工程技术王灿明 (10-17周) 金属材料工程2019-1-5</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>焊接方法与设备曹梅青 (10-17周) 金属材料工程2019-1-5</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -4394,23 +3852,15 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>生物工程专业导论赵辉 (12-19周) 生物工程2021-1-2</t>
+          <t>焊接方法与设备曹梅青 (10-17周) 金属材料工程2019-1-5</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>化工设计概论高登征 (11-18周) 生物工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
@@ -4428,94 +3878,62 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>J14-342室</t>
+          <t>J14-409室</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>高分子物理马勇 (7-18周) 高分子材料与工程2019-4</t>
+          <t>有机化学（2-1）王翠珍 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>金属压力加工工艺与设备李志超 (11-18周) 金属材料工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>仪器分析刘静 (11-15,17周) 生物工程2020-2</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>无机化学黄小文 (13-18周) 材料化学2021-1</t>
+          <t>高分子物理崔立强 (11-15,17-19周) 应用化学2019-1-3</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>无机化学宋亮 (13-18周) 高分子材料与工程2021-2</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>高分子物理马勇 (7-18周) 高分子材料与工程2019-4</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>聚合反应原理孙何靖 (11-19周) 高分子材料与工程2019-3-4</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>无机化学宋亮 (13-18周) 高分子材料与工程2021-1</t>
-        </is>
-      </c>
+          <t>有机化学（2-1）王翠珍 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>无机化学宋亮 (13-18周) 高分子材料与工程2021-3</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>金属压力加工工艺与设备李志超 (11-18周) 金属材料工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>无机化学黄小文 (13-18周) 材料化学2021-1</t>
-        </is>
-      </c>
+          <t>仪器分析刘静 (11-15,17周) 生物工程2020-2</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>无机化学宋亮 (13-18周) 高分子材料与工程2021-2</t>
+          <t>高分子物理崔立强 (11-15,17-19周) 应用化学2019-1-3</t>
         </is>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>应用电化学基础*李硕琦 (12-19周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr">
         <is>
-          <t>聚合反应原理孙何靖 (11-19周) 高分子材料与工程2019-3-4</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>无机化学宋亮 (13-18周) 高分子材料与工程2021-3</t>
-        </is>
-      </c>
+          <t>计算机程序设计基础（C语言）鲁法明 (12-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>无机化学宋亮 (13-18周) 高分子材料与工程2021-1</t>
-        </is>
-      </c>
+      <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
@@ -4533,68 +3951,56 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>J14-402室</t>
+          <t>J14-410室</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>过程机械故障诊断胡效东 (11-18周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>电工电子技术（A)孟秀芝 (12-19周) 机械设计制造及其自动化2020-1-2</t>
-        </is>
-      </c>
+          <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>过程装备控制技术及应用陈广庆 (11-18周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>可编程控制器刘廷瑞 (11-18周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
+          <t>机械设计基础（B）于蓉蓉 (11-18周) 工业工程2020-2</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>市场营销学(A)吕晓菲 (8-19周) 工商管理(体育)2020</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>电工电子技术（A)孟秀芝 (12-19周) 机械设计制造及其自动化2020-1-2</t>
-        </is>
-      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>过程机械故障诊断胡效东 (11-18周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>过程装备控制技术及应用陈广庆 (11-18周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr"/>
+          <t>机械设计基础（B）于蓉蓉 (11-18周) 工业工程2020-2</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>流体力学宋立英 (10-17周) 环境工程2020-3-4</t>
+        </is>
+      </c>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>市场营销学(A)吕晓菲 (8-19周) 工商管理(体育)2020</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>可编程控制器刘廷瑞 (11-18周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>电工电子技术（A)孟秀芝 (12-19周) 机械设计制造及其自动化2020-1-2</t>
-        </is>
-      </c>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
@@ -4614,52 +4020,56 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>J14-403室</t>
+          <t>J14-413室</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>EXCEL财务应用刘立华 (5-18周) 会计学2019-1-2</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>创业管理马恒平 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>物理化学黄永清 (8-17周) 环境工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>期货与期权闻德美 (11-19周) 投资学2019-1-2</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>物理化学滕弘霓 (8-17周) 环境工程2020-1-4</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>安全工程专业导论孔彪 (13-19周) 安全工程2021-4</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
+          <t>人力资源管理(A)周志刚 (8-19周) 工商管理(体育)2020</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>创业管理马恒平 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>安全工程专业导论孔彪 (13-19周) 安全工程2021-5</t>
+          <t>人力资源管理(A)周志刚 (8-19周) 工商管理(体育)2020</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>物理化学滕弘霓 (8-17周) 环境工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
@@ -4679,36 +4089,68 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>J14-404室</t>
+          <t>J14-414室</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>水文地质学基础高宗军,张彧齐 (11-18单周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>地质灾害与防治邓清海 (8-17周) 地质工程2019-3</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>战略管理（A）方宏 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>电路基础仉毅 (11-18周) 机械电子工程2020-1-2</t>
+          <t>水文地质学基础高宗军,张彧齐 (11-18周) 水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>微观经济学(A)赵友宝 (8-19周) 工商管理(体育)2021</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>地质灾害与防治邓清海 (8-17周) 地质工程2019-3</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>微观经济学(A)赵友宝 (8-19周) 工商管理(体育)2021</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>战略管理（A）方宏 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>水文地质学基础高宗军,张彧齐 (11-18周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
@@ -4728,69 +4170,41 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>J14-405室</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>公司治理周志刚 (11-18周) 工商管理2018-1-2</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>物流建模方法杨珍花 (9-18周) 物流管理2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-416室</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>电子商务物流学杨磊 (10-18周) 电子商务2019-1-2</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>结构化学刘瑞 (11-18周) 新能源材料与器件2020-2</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>银行结算*邢苗 (11-17周) 金融学2019-1-2</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>电子商务物流学杨磊 (10-18周) 电子商务2019-1-2</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>材料表面工程技术王灿明 (10-17周) 金属材料工程2019-1-5</t>
+        </is>
+      </c>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>银行结算*邢苗 (11-17周) 金融学2019-1-2</t>
-        </is>
-      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
+          <t>结构化学刘瑞 (11-18周) 新能源材料与器件2020-2</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
@@ -4813,56 +4227,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>J14-406室</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）马进 (10-18周) 金属材料工程2019-4-5</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>高分子物理*马勇 (7-18周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-418室</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>无机化学邱鹏 (13-18周) 新能源材料与器件2021-2</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）马进 (10-18周) 金属材料工程2019-4-5</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>高分子物理*马勇 (7-18周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>无机化学邱鹏 (13-18周) 新能源材料与器件2021-2</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>地球化学勘探韩文学,林玉祥 (12-17周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr">
         <is>
-          <t>电工电子技术（B）马进 (10-18周) 金属材料工程2019-4-5</t>
+          <t>矿物学赵延洋 (13-18周) 地质工程2021-3</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -4886,59 +4280,35 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>J14-407室</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>应用电化学基础*李硕琦 (12-19周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-419室</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>聚合反应原理张如良 (11-19周) 高分子材料与工程2019-1-2</t>
+          <t>GIS基础与地学应用刘一霖 (11-18周) 勘查技术与工程2020-1-2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>高分子物理尹训茜 (7-18周) 高分子材料与工程2019-1</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>高分子物理尹训茜 (7-18周) 高分子材料与工程2019-2</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>应用电化学基础*李硕琦 (12-19周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>高分子物理尹训茜 (7-18周) 高分子材料与工程2019-2</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>聚合反应原理张如良 (11-19周) 高分子材料与工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>高分子物理尹训茜 (7-18周) 高分子材料与工程2019-1</t>
-        </is>
-      </c>
+          <t>GIS基础与地学应用刘一霖 (11-18周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
@@ -4963,64 +4333,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>J14-408室</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>遥感水文郭斌 (10-17周) 遥感科学与技术2018-1-3</t>
-        </is>
-      </c>
+          <t>J14-420室</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>海洋调查付庆军 (9-17周) 测绘工程（海洋测绘方向）2018</t>
+          <t>专门水文地质学邓清海 (8-17周) 水文与水资源工程2019-2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>空间数据库张蕾 (12-18周) 地理信息科学2020-3</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>数字摄影测量学解斐斐,刘健辰 (12-19周) 测绘工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>专门水文地质学邓清海 (8-17周) 水文与水资源工程2019-2</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>计算机图形学施剑 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>空间数据库张蕾 (11-18周) 地理信息科学2020-3</t>
-        </is>
-      </c>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>数字摄影测量学解斐斐,刘健辰 (11-19周) 测绘工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>计算机图形学施剑 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
+      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
@@ -5040,39 +4386,39 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>J14-409室</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>流体力学与流体机械吴蓬 (12-18周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>J14-421室</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GIS软件工程刘冰 (9-17周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
+          <t>GIS软件工程刘冰 (9-17周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>地史学王平丽 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -5080,13 +4426,13 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>地史学王平丽 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>物理化学黄永清 (17周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
+      <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
@@ -5105,7 +4451,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>J14-410室</t>
+          <t>J14-423室</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -5119,30 +4465,26 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)王惠 (4-18周) 应用化学2021-1</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>海洋地质学宋召军,许庆林 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>钻探工程张晓阳 (9-17周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>遥感图像处理与应用肖兴媛 (11-19周) 测绘工程2018-1-2</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>钻探工程张晓阳 (9-17周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
@@ -5162,7 +4504,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>J14-411室</t>
+          <t>J14-430室</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -5170,40 +4512,28 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>工程力学姜兰越,李晓宇 (12-19周) 能源与动力工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>机器人学导论张明辉 (9-17周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>工程材料赵媛媛 (12-19周) 能源与动力工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C语言）刘志海 (12-19周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>数字测图原理与方法王健 (12-19周) 遥感科学与技术2021-1</t>
+        </is>
+      </c>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
@@ -5223,46 +4553,38 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>J14-412室</t>
+          <t>J14-432室</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>机械制造技术基础（C）王海霞 (11-19周) 机械电子工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>水文地质学谢道雷 (10-17周) 地质工程2020-2</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>矿山电工王德堂,王亮 (11-19周) 机械电子工程2018-1-5</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>机械制造技术基础（C）王海霞 (11-19周) 机械电子工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>地理信息系统原理与应用赵相伟 (8-19周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>普通化学（B）唐尧基 (12-18周) 机械设计制造及其自动化2021-2</t>
-        </is>
-      </c>
+          <t>水文地质学谢道雷 (10-17周) 地质工程2020-2</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -5270,11 +4592,7 @@
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>矿山电工王德堂,王亮 (11-19周) 机械电子工程2018-1-5</t>
-        </is>
-      </c>
+      <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
@@ -5292,24 +4610,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>J14-413室</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>互换性与机械制造基础王素玉 (8-17周) 工业工程2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-434室</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>计算机语言公绪飞 (15-18周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>水文地质学张伟杰 (10-17周) 地质工程2020-3</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -5320,7 +4634,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>计算机语言公绪飞 (15-18周) 采矿工程（宋振骐班）2021</t>
+          <t>水文地质学张伟杰 (10-17周) 地质工程2020-3</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -5349,56 +4663,56 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>J14-414室</t>
+          <t>J14-436室</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)鲁继平 (4-19周) 地理信息科学2021-1</t>
+          <t>化工原理李敏 (1-15,17-19周) 应用化学2019-1-2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>物理化学黄永清 (4-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>数字地形建模李伟伟 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)鲁继平 (4-19周) 地理信息科学2021-1</t>
-        </is>
-      </c>
+          <t>工程概论孙琳琳 (10-17周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>物理化学黄永清 (4-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>测绘新技术讲座张方照 (11-19周) 测绘工程2018-1-4</t>
-        </is>
-      </c>
+      <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>地理信息系统原理与应用刘洪强 (8-19周) 测绘工程2019-3</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>工程概论孙琳琳 (10-17周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>细胞工程闫华晓 (10-18周) 生物工程2019-1</t>
+        </is>
+      </c>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
@@ -5418,67 +4732,43 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>J14-416室</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-440室</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>有机化学（2-1）卢文欣 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>资源与环境经济学赵金凯 (10-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>公司治理周志刚 (11-18周) 工商管理2018-1-2</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>宏观经济学(B)李淑云 (11-18周) 会计学2020-1-2</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>有机化学（2-1）卢文欣 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>计算机程序设计（VB）由晓芳 (12-19周) 矿物加工工程2021-1-3</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>资源与环境经济学赵金凯 (10-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>有机化学（2-2）卢文欣 (11-18周) 化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>国际投资学孙玉红 (10-18周) 投资学2018-1-2</t>
-        </is>
-      </c>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
@@ -5499,13 +4789,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>J14-418室</t>
+          <t>J14-442室</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)赵善青 (4-19周) 测绘工程2021-3</t>
+          <t>金属材料学李桂杰 (17周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -5515,31 +4805,31 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>地球物理测井杨思通,张涛 (9-19周) 勘查技术与工程2019-2</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>分析化学李硕琦 (8-19周) 材料化学2020-2</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)赵善青 (4-19周) 测绘工程2021-3</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>塑料助剂合成与应用王忠卫 (10-17周) 材料化学2019-1-2</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>分析化学李硕琦 (8-19周) 材料化学2020-2</t>
+        </is>
+      </c>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
@@ -5560,25 +4850,21 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>J14-419室</t>
+          <t>J14-503室</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>地貌学及第四纪地质学田红 (12-19周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>军事理论冯阳,李雷 (4-19周) 测绘工程2021-3-5</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>网络营销（A）侯艳辉 (10-18周) 电子商务2019-2</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李玉青 (4-19周) 机械设计制造及其自动化2021-1-4</t>
+          <t>电子商务孙丽华 (13-19周) 大数据管理与应用2021-1</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -5586,34 +4872,42 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Java程序设计周长红 (12-19周) 大数据管理与应用2021-1</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Java程序设计周长红 (13-19周) 大数据管理与应用2021-2</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>工程概论孙凌志 (10-17周) 地质工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李玉青 (4-19周) 机械设计制造及其自动化2021-1-4</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr"/>
+          <t>电子商务孙丽华 (13-19周) 大数据管理与应用2021-1</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>网络营销（A）侯艳辉 (10-18周) 电子商务2019-2</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）李玉青 (4-19周) 机械设计制造及其自动化2021-1-4</t>
-        </is>
-      </c>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr">
         <is>
-          <t>实验设计与数据处理吕英海 (11-18周) 生物工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr"/>
+          <t>Java程序设计周长红 (12-19周) 大数据管理与应用2021-1</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>Java程序设计周长红 (13-19周) 大数据管理与应用2021-2</t>
+        </is>
+      </c>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
@@ -5633,16 +4927,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>J14-420室</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>定量遥感孙林 (11-19周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
+          <t>J14-504室</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -5650,55 +4948,27 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>摄影测量学王志勇 (10-19周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-1</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>军事理论易凡,张昔玉 (4-19周) 勘查技术与工程2021-1-2</t>
+          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-1</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>流体力学与流体机械吴蓬 (12-18周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>金融经济学秦晓钰 (11-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>定量遥感孙林 (11-19周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>摄影测量学王志勇 (10-19周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>数学物理方程与特殊函数王敏 (11-18周) 地质工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
@@ -5718,55 +4988,39 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>J14-421室</t>
+          <t>J14-513室</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>资源与环境遥感黄珏 (12-19周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>材料力学谭涛 (11-18周) 机械电子工程(留学生)2020</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>地图学概论郭斌 (12-19周) 遥感科学与技术2020-1-3</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>资源与环境遥感黄珏 (12-19周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr">
         <is>
-          <t>遥感水文郭斌 (10-17周) 遥感科学与技术2018-1-3</t>
+          <t>材料力学谭涛 (11-18周) 机械电子工程(留学生)2020</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>数字信号处理罗宇 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
+      <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>自然地理学明艳芳 (12-19周) 地理信息科学2021-1-3</t>
-        </is>
-      </c>
+      <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
@@ -5787,43 +5041,63 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>J14-423室</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>水文地球化学任加国 (9-19周) 水文与水资源工程2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-512室</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>地理信息系统原理与应用赵相伟 (8-19周) 测绘工程2019-1</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>测绘专业英语陈允芳 (10-18周) 测绘工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
@@ -5844,51 +5118,31 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>J14-424室</t>
+          <t>J14-523室</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张玉亮 (4-19周) 测绘工程2021-5</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>军事理论王鹏 (4-19周) 地理信息科学2021-1-2</t>
-        </is>
-      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>材料科学基础 (A)谢鲲 (17周) 金属材料工程2020-2</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>应用统计学（A）姜涛 (11-18周) 投资学2019-1-2</t>
-        </is>
-      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张玉亮 (4-19周) 测绘工程2021-5</t>
-        </is>
-      </c>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>国际投资学孙玉红 (10-18周) 投资学2018-1-2</t>
+          <t>材料科学基础 (A)谢鲲 (17周) 金属材料工程2020-2</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>军事理论孙志勇,吴昊 (4-19周) 遥感科学与技术2021-3班,地理信息科学2021-3</t>
-        </is>
-      </c>
+      <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
@@ -5917,47 +5171,83 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>J14-426室</t>
+          <t>J14-514室</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>等离子技术及应用王淑峰 (10-17周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2</t>
+          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘炳淑 (4-19周) 测绘工程2021-2</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)刘炳淑 (4-19周) 测绘工程2021-2</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (12-18周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr"/>
+          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
@@ -5978,63 +5268,55 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>J14-428室</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-4-6</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+          <t>J14-516室</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>矿山环境概论赵金海 (16-19周) 采矿工程2020-6</t>
-        </is>
-      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>数值分析与计算方法周康 (12-19周) 工程力学2020-1-2</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>矿山环境概论尹大伟 (16-19周) 采矿工程2020-5</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-4-6</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-1-3</t>
-        </is>
-      </c>
+          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr">
         <is>
-          <t>数值分析与计算方法周康 (12-19周) 工程力学2020-1-2</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr"/>
+          <t>形态构成设计（二）甄珍 (16-17周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-17周) 环境设计2021-2</t>
+        </is>
+      </c>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
@@ -6055,16 +5337,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>J14-430室</t>
+          <t>J14-531室</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>计算机图形学李泽宇 (12-19周) 测绘工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
@@ -6072,34 +5350,22 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>计算机图形学刘羽 (12-19周) 测绘工程2020-5</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>地理信息系统原理与应用刘洪强 (8-19周) 测绘工程2019-3</t>
-        </is>
-      </c>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>计算机图形学李泽宇 (12-19周) 测绘工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>工程概论任英伟 (10-17周) 金属材料工程2020-1-4</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>计算机图形学刘羽 (12-19周) 测绘工程2020-5</t>
-        </is>
-      </c>
+      <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
@@ -6120,47 +5386,39 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>J14-432室</t>
+          <t>J14-533室</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>煤地质学刘海燕,吕大炜 (10-17周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>海洋调查方法刘金庆 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>煤地质学郑雪 (10-17周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>变质岩岩石学王淞杰 (13-18周) 资源勘查工程2020-2</t>
-        </is>
-      </c>
+      <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
@@ -6181,7 +5439,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>J14-434室</t>
+          <t>J14-535室</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -6189,18 +5447,18 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>水文学原理张升堂 (11-18周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>地球物理测井杨思通 (9-19周) 勘查技术与工程2019-1</t>
-        </is>
-      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -6210,11 +5468,7 @@
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>地球物理测井杨思通 (9-19周) 勘查技术与工程2019-1</t>
-        </is>
-      </c>
+      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
@@ -6234,49 +5488,53 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>J14-436室</t>
+          <t>J14-524室</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>催化化学陈伟 (11-18周) 应用化学2018-1-3</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>物理化学孔霞 (4-12,14-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>无机化学路广 (4-19周) 应用化学2021-2</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
+          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>插画姚沫 (17周) 视觉传达设计2020-2 插画宋美音 (17周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>无机化学路广 (4-19周) 应用化学2021-2</t>
+          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr"/>
@@ -6299,59 +5557,47 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>J14-438室</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>惯性导航基础石波 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-528室</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>C++语言程序设计崔健慧 (4-19周) 测绘工程2021-2</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>C++语言程序设计李泽宇 (4-19周) 测绘工程2021-3</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>惯性导航基础石波 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>海洋调查付庆军 (9-17周) 测绘工程（海洋测绘方向）2018</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>惯性导航基础石波 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
-          <t>工程概论李英 (10-17周) 测绘工程2020-4-5</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr"/>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
       <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
@@ -6372,58 +5618,58 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>J14-440室</t>
+          <t>J14-530室</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>化学软件应用技术高猛 (12-18周) 应用化学2018-1-3</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>有机化学（2-2）卢文欣 (11-18周) 化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>有机化学（2-2）卢文欣 (17周) 化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
+      <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr"/>
+          <t>形态构成设计（二）李强 (16-17周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）李强 (16-17周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr">
-        <is>
-          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
-        </is>
-      </c>
+      <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
@@ -6441,80 +5687,48 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>J14-442室</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（Python语言）孙海滨 (12-18周) 新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>高分子物理赵丽芬 (7-18周) 高分子材料与工程2019-3</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>文献检索与科技论文撰写李硕琦 (12-19周) 材料化学2019-1</t>
-        </is>
-      </c>
+          <t>J14-532室</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>流体力学与流体机械张同环 (11-18周) 矿物加工工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>文献检索与科技论文撰写李硕琦 (12-19周) 材料化学2019-1</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>无机化学黄小文 (13-18周) 材料化学2021-2</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（Python语言）陈雪 (12-18周) 材料化学2021-1-2</t>
-        </is>
-      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（Python语言）孙海滨 (12-18周) 新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>高分子物理赵丽芬 (7-18周) 高分子材料与工程2019-3</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+        </is>
+      </c>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr">
         <is>
-          <t>无机化学黄小文 (13-18周) 材料化学2021-2</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）陈雪 (12-18周) 材料化学2021-1-2</t>
-        </is>
-      </c>
-      <c r="Y76" t="inlineStr">
-        <is>
-          <t>文献检索与科技论文撰写李硕琦 (12-19周) 材料化学2019-1</t>
-        </is>
-      </c>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
@@ -6534,7 +5748,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>J14-504室</t>
+          <t>J14-536室</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -6542,21 +5756,21 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (10-17周) 工业设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (10-17周) 工业设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
@@ -6565,8 +5779,16 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
@@ -6587,7 +5809,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>J14-512室</t>
+          <t>J14-540室</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -6600,34 +5822,38 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>装饰基础孙彤彤 (15-19周) 环境设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>装饰基础孙彤彤 (15-19周) 环境设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>装饰基础孙彤彤 (15-19周) 环境设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr">
         <is>
-          <t>装饰基础孙彤彤 (15-19周) 环境设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
@@ -6648,88 +5874,40 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>J14-514室</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
-        </is>
-      </c>
+          <t>J14-511室</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
-        </is>
-      </c>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>景观设计（一）仇同文 (16-18周) 环境设计2019-1</t>
-        </is>
-      </c>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr">
         <is>
-          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="Y79" t="inlineStr">
-        <is>
-          <t>景观设计（一）李晓君 (16-18周) 环境设计2019-2</t>
-        </is>
-      </c>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
@@ -6749,59 +5927,35 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J14-516室</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>环境设计初步刘燕 (16-19周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>环境设计初步刘燕 (16-19周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>环境设计初步许士朋 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>环境设计初步许士朋 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
+          <t>J14-521室</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>环境设计初步刘燕 (16-19周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>环境设计初步刘燕 (16-19周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>环境设计初步许士朋 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>环境设计初步许士朋 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
@@ -6826,50 +5980,58 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>J14-524室</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-332室</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
+          <t>矿物学赵延洋 (13-18周) 地质工程2021-3</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>工程测量田茂义 (13-18周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr">
         <is>
-          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
+          <t>工程测量田茂义 (13-18周) 勘查技术与工程2020-1-2</t>
         </is>
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
+        </is>
+      </c>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
@@ -6891,65 +6053,77 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>J14-528室</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+          <t>J14-519室</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
+        </is>
+      </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-1</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-1</t>
-        </is>
-      </c>
+          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-1</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-1</t>
-        </is>
-      </c>
+          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-2</t>
-        </is>
-      </c>
+      <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr">
         <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-2</t>
-        </is>
-      </c>
-      <c r="Y82" t="inlineStr">
-        <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-2</t>
-        </is>
-      </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-2</t>
-        </is>
-      </c>
+          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
@@ -6962,335 +6136,6 @@
       <c r="AJ82" t="inlineStr"/>
       <c r="AK82" t="inlineStr"/>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>J14-536室</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>平面设计基础李宗源 (14-19周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>平面设计基础李宗源 (14-19周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>平面设计基础李宗源 (14-19周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>平面设计基础李宗源 (14-19周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
-      <c r="AB83" t="inlineStr"/>
-      <c r="AC83" t="inlineStr"/>
-      <c r="AD83" t="inlineStr"/>
-      <c r="AE83" t="inlineStr"/>
-      <c r="AF83" t="inlineStr"/>
-      <c r="AG83" t="inlineStr"/>
-      <c r="AH83" t="inlineStr"/>
-      <c r="AI83" t="inlineStr"/>
-      <c r="AJ83" t="inlineStr"/>
-      <c r="AK83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>J14-538室</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (17-19周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="AA84" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="AB84" t="inlineStr"/>
-      <c r="AC84" t="inlineStr"/>
-      <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="inlineStr"/>
-      <c r="AF84" t="inlineStr"/>
-      <c r="AG84" t="inlineStr"/>
-      <c r="AH84" t="inlineStr"/>
-      <c r="AI84" t="inlineStr"/>
-      <c r="AJ84" t="inlineStr"/>
-      <c r="AK84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>J14-540室</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (11-18周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (11-18周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr"/>
-      <c r="AD85" t="inlineStr"/>
-      <c r="AE85" t="inlineStr"/>
-      <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="inlineStr"/>
-      <c r="AH85" t="inlineStr"/>
-      <c r="AI85" t="inlineStr"/>
-      <c r="AJ85" t="inlineStr"/>
-      <c r="AK85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>J14-525室</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>机械设计基础（A）陈修龙 (17-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr">
-        <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="inlineStr"/>
-      <c r="AD86" t="inlineStr"/>
-      <c r="AE86" t="inlineStr"/>
-      <c r="AF86" t="inlineStr"/>
-      <c r="AG86" t="inlineStr"/>
-      <c r="AH86" t="inlineStr"/>
-      <c r="AI86" t="inlineStr"/>
-      <c r="AJ86" t="inlineStr"/>
-      <c r="AK86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>J14-332室</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>变质岩岩石学孔凡梅 (13-18周) 资源勘查工程2020-1</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr"/>
-      <c r="AB87" t="inlineStr"/>
-      <c r="AC87" t="inlineStr"/>
-      <c r="AD87" t="inlineStr"/>
-      <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="inlineStr"/>
-      <c r="AG87" t="inlineStr"/>
-      <c r="AH87" t="inlineStr"/>
-      <c r="AI87" t="inlineStr"/>
-      <c r="AJ87" t="inlineStr"/>
-      <c r="AK87" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/17.xlsx
+++ b/excel/17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK82"/>
+  <dimension ref="A1:AK80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,10 +735,8 @@
           <t>0506</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0708</t>
-        </is>
+      <c r="Z2" t="n">
+        <v>708</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -1898,11 +1896,7 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
@@ -1937,11 +1931,7 @@
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr">
@@ -2172,41 +2162,93 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>J14-304室</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+          <t>J14-305室</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>应用统计学（B）马媛 (12-19周) 金融学2020-1-2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>运筹学张杰 (8-19周) 物流管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>基础会计李芳 (7-17周) 会计学2021-1-2</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>战略管理（A）方宏 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>运筹学(D)饶卫振 (10-18周) 金融学2019-1-2</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>工程材料与热加工工艺孙静 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>应用统计学（B）马媛 (12-19周) 金融学2020-1-2</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>基础会计李芳 (9-17周) 会计学2021-1-2</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>成本会计马红 (10-19周) 会计学2020-1-2</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>商品学概论刘本玲 (11-18周) 国际经济与贸易2021-1-2</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>战略管理（A）方宏 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>运筹学(D)饶卫振 (10-18周) 金融学2019-1-2</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>运筹学张杰 (8-19周) 物流管理2020-1-2</t>
+        </is>
+      </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>工程材料与热加工工艺孙静 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>宏观经济学(A)孟文强 (8-19周) 国际经济与贸易2021-1-2</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>商品学概论刘本玲 (11-18周) 国际经济与贸易2021-1-2</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>成本会计马红 (10-19周) 会计学2020-1-2</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
@@ -2215,8 +2257,16 @@
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>人力资源管理（A）韩帅 (7-18周) 工商管理(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>人力资源管理（A）韩帅 (7-18周) 工商管理(辅修)2020</t>
+        </is>
+      </c>
       <c r="AK21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2225,92 +2275,56 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>J14-305室</t>
+          <t>J14-306室</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>应用统计学（B）马媛 (12-19周) 金融学2020-1-2</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>运筹学张杰 (8-19周) 物流管理2020-1-2</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>基础会计李芳 (7-17周) 会计学2021-1-2</t>
-        </is>
-      </c>
+          <t>物流系统仿真姜力文 (13-18周) 物流管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>战略管理（A）方宏 (10-18周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>运筹学(D)饶卫振 (10-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>地球化学勘探韩文学,林玉祥 (12-17周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>应用统计学（B）马媛 (12-19周) 金融学2020-1-2</t>
+          <t>物流系统仿真姜力文 (13-18周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>基础会计李芳 (9-17周) 会计学2021-1-2</t>
+          <t>管理学研究方法（A）杨珍花 (10-18周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>成本会计马红 (10-19周) 会计学2020-1-2</t>
+          <t>地球化学勘探韩文学,林玉祥 (12-17周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>商品学概论刘本玲 (11-18周) 国际经济与贸易2021-1-2</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>战略管理（A）方宏 (10-18周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>运筹学(D)饶卫振 (10-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>运筹学张杰 (8-19周) 物流管理2020-1-2</t>
-        </is>
-      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>宏观经济学(A)孟文强 (8-19周) 国际经济与贸易2021-1-2</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr">
         <is>
-          <t>商品学概论刘本玲 (11-18周) 国际经济与贸易2021-1-2</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>成本会计马红 (10-19周) 会计学2020-1-2</t>
-        </is>
-      </c>
+          <t>管理学研究方法（A）杨珍花 (10-18周) 物流管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
@@ -2320,16 +2334,8 @@
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>人力资源管理（A）韩帅 (7-18周) 工商管理(辅修)2020</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>人力资源管理（A）韩帅 (7-18周) 工商管理(辅修)2020</t>
-        </is>
-      </c>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2338,55 +2344,43 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>J14-306室</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>物流系统仿真姜力文 (13-18周) 物流管理2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-307室</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>地球化学勘探韩文学,林玉祥 (12-17周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>材料科学基础 (A)谢鲲 (17周) 金属材料工程2020-1</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>物流系统仿真姜力文 (13-18周) 物流管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>管理学研究方法（A）杨珍花 (10-18周) 物流管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>地球化学勘探韩文学,林玉祥 (12-17周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>材料科学基础 (A)谢鲲 (17周) 金属材料工程2020-1</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>管理学研究方法（A）杨珍花 (10-18周) 物流管理2019-1-2</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）袁方 (10,12-13,16-18周) 新能源材料与器件2020-1-2</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
@@ -2407,42 +2401,58 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>J14-307室</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+          <t>J14-309室</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工程概论周红敏 (10-17周) 应用化学2020-1-3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>细胞工程邹玉红 (10-18周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)谢鲲 (17周) 金属材料工程2020-1</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>采选冶概论刘振学 (11-18周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>药物学基础邹玉红 (11-19周) 生物工程2019-1-2</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C语言）鲁法明 (12-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>细胞工程邹玉红 (10-18周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)谢鲲 (17周) 金属材料工程2020-1</t>
+          <t>药物学基础邹玉红 (11-19周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）袁方 (10,12-13,16-18周) 新能源材料与器件2020-1-2</t>
-        </is>
-      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -2464,59 +2474,43 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>J14-309室</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>工程概论周红敏 (10-17周) 应用化学2020-1-3</t>
-        </is>
-      </c>
+          <t>J14-310室</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>细胞工程邹玉红 (10-18周) 生物工程2019-2</t>
+          <t>微观经济学(A)陈爱萍 (8-19周) 会计学2021-2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>采选冶概论刘振学 (11-18周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>药物学基础邹玉红 (11-19周) 生物工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C语言）鲁法明 (12-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>细胞工程邹玉红 (10-18周) 生物工程2019-2</t>
+          <t>国际经济合作*李淑云 (10-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>药物学基础邹玉红 (11-19周) 生物工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>国际经济合作*李淑云 (10-18周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
@@ -2537,44 +2531,56 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>J14-310室</t>
+          <t>J14-311室</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>微观经济学(A)陈爱萍 (8-19周) 会计学2021-2</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C语言)聂志峰 (10-17周) 智能制造工程2021-1-2</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>普通化学柏中朝 (11-18周) 能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>国际经济合作*李淑云 (10-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C语言)聂志峰 (10-17周) 智能制造工程2021-1-2</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>普通化学柏中朝 (11-18周) 能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>国际经济合作*李淑云 (10-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
+        </is>
+      </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
@@ -2594,56 +2600,60 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>J14-311室</t>
+          <t>J14-312室</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C语言)聂志峰 (10-17周) 智能制造工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>经济法（C）王彩霞 (11-18周) 金融学2020-1-2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
+          <t>运输与配送管理于灏 (11-19周) 物流管理2019-2</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>普通化学柏中朝 (11-18周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>商业银行会计孙玉红 (11-18周) 金融学2020-1-2</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（C语言)聂志峰 (10-17周) 智能制造工程2021-1-2</t>
+          <t>运输与配送管理于灏 (11-19周) 物流管理2019-1</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>微观经济学(A)陶敏 (8-19周) 工商管理2021-1-2</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>品牌管理吕晓菲 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>普通化学柏中朝 (11-18周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
-        </is>
-      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>商业银行会计孙玉红 (11-18周) 金融学2020-1-2</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
@@ -2663,59 +2673,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>J14-312室</t>
+          <t>J14-313室</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>经济法（C）王彩霞 (11-18周) 金融学2020-1-2</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>运输与配送管理于灏 (11-19周) 物流管理2019-2</t>
+          <t>塑料助剂合成与应用王忠卫 (10-17周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>商业银行会计孙玉红 (11-18周) 金融学2020-1-2</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>运输与配送管理于灏 (11-19周) 物流管理2019-1</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>微观经济学(A)陶敏 (8-19周) 工商管理2021-1-2</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>品牌管理吕晓菲 (10-18周) 工商管理2019-1-2</t>
-        </is>
-      </c>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>商业银行会计孙玉红 (11-18周) 金融学2020-1-2</t>
-        </is>
-      </c>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
@@ -2736,29 +2722,49 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>J14-313室</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>J14-314室</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>晶体光学与光性矿物学周振柱 (13-17周) 资源勘查工程2021-3</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>晶体光学与光性矿物学孔凡梅 (13-17周) 资源勘查工程2021-1-2</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>地球化学勘探刘金庆 (12-17周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>塑料助剂合成与应用王忠卫 (10-17周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>流体力学陈平 (10-17周) 环境工程2020-1-2</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>地球化学勘探刘金庆 (12-17周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>地球化学勘探刘金庆 (12-17周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
@@ -2785,50 +2791,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>J14-314室</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>晶体光学与光性矿物学周振柱 (13-17周) 资源勘查工程2021-3</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>晶体光学与光性矿物学孔凡梅 (13-17周) 资源勘查工程2021-1-2</t>
-        </is>
-      </c>
+          <t>J14-316室</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>计算机程序设计(VF)任艳伟 (13-18周) 会计学2020-1-2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>地球化学勘探刘金庆 (12-17周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>移动商务技术与应用*张福平 (10-17周) 电子商务2019-1-2</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>经济博弈论张伟 (10-18周) 投资学2019-1-2</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>流体力学陈平 (10-17周) 环境工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>地球化学勘探刘金庆 (12-17周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>地球化学勘探刘金庆 (12-17周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>计算机程序设计(VF)任艳伟 (13-18周) 会计学2020-1-2</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -2854,43 +2852,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>J14-316室</t>
+          <t>J14-318室</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>计算机程序设计(VF)任艳伟 (13-18周) 会计学2020-1-2</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>移动商务技术与应用*张福平 (10-17周) 电子商务2019-1-2</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>经济博弈论张伟 (10-18周) 投资学2019-1-2</t>
-        </is>
-      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>地球化学魏友卿 (8-17周) 水文与水资源工程2019-1-2</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>计算机程序设计(VF)任艳伟 (13-18周) 会计学2020-1-2</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>地球化学魏友卿 (8-17周) 水文与水资源工程2019-1-2</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
@@ -2915,35 +2905,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>J14-318室</t>
+          <t>J14-319室</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>油气田勘探林玉祥 (11-17周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>形势与政策（4-4）邱楚珈 (13-15,17周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>地球化学魏友卿 (8-17周) 水文与水资源工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>油气田勘探林玉祥 (11-17周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>地球化学魏友卿 (8-17周) 水文与水资源工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
@@ -2968,38 +2962,50 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>J14-319室</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>油气田勘探林玉祥 (11-17周) 资源勘查工程2019-1-3</t>
-        </is>
-      </c>
+          <t>J14-320室</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>生产运作与管理李美燕 (10-17周) 工业工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>机械设计基础（B）姜慧 (11-18周) 工业工程2020-1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>运输与配送管理于灏 (11-19周) 物流管理2019-1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>形势与政策（4-4）邱楚珈 (13-15,17周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>生产运作与管理李美燕 (10-17周) 工业工程2021-1-2</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>油气田勘探林玉祥 (11-17周) 资源勘查工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>机械设计基础（B）姜慧 (11-18周) 工业工程2020-1</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>运输与配送管理于灏 (11-19周) 物流管理2019-2</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -3025,24 +3031,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>J14-320室</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>生产运作与管理李美燕 (10-17周) 工业工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>机械设计基础（B）姜慧 (11-18周) 工业工程2020-1</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>运输与配送管理于灏 (11-19周) 物流管理2019-1</t>
-        </is>
-      </c>
+          <t>J14-321室</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -3050,30 +3044,26 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>生产运作与管理李美燕 (10-17周) 工业工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>地史学周长付 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>机械设计基础（B）姜慧 (11-18周) 工业工程2020-1</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>运输与配送管理于灏 (11-19周) 物流管理2019-2</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>地史学周长付 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
@@ -3094,40 +3084,84 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>J14-321室</t>
+          <t>J14-323室</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>土壤物理学刘强 (8-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>工程与环境物探张金伟 (9-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>基础工程与地基处理刘强 (8-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>地质灾害与防治邱梅 (8-17周) 地质工程2019-2</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>工程与环境物探张金伟 (9-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>地史学周长付 (12-19周) 资源勘查工程2020-1-3</t>
+          <t>海洋工程地质学苗佳丽 (8-17周) 地质工程2019-1-3</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>土壤物理学刘强 (8-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>地质灾害与防治邱梅 (8-17周) 地质工程2019-2</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>基础工程与地基处理刘强 (8-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>GIS原理与应用张军建 (8-17周) 水文与水资源工程2019-1班,水文与水资源工程2019-1-2班,水文与水资源工程2019-2</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>基础工程与地基处理刘强 (16-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>地史学周长付 (12-19周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr"/>
+          <t>工程与环境物探张金伟 (9-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>海洋工程地质学苗佳丽 (8-17周) 地质工程2019-1-3</t>
+        </is>
+      </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
@@ -3147,30 +3181,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>J14-323室</t>
+          <t>J14-324室</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>土壤物理学刘强 (8-17周) 地质工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>工程与环境物探张金伟 (9-17周) 地质工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>基础工程与地基处理刘强 (8-17周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>机械原理李学艺 (7-17单周) 机械设计制造及其自动化2020-1</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>地质灾害与防治邱梅 (8-17周) 地质工程2019-2</t>
+          <t>工程测试与信号处理刘廷瑞 (5-9,14-17周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -3178,53 +3204,33 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>工程与环境物探张金伟 (9-17周) 地质工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>海洋工程地质学苗佳丽 (8-17周) 地质工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+          <t>机械原理李学艺 (7-17单周) 机械设计制造及其自动化2020-1</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>学科前沿（Ⅰ）李晓宇 (14-17周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>土壤物理学刘强 (8-17周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>地质灾害与防治邱梅 (8-17周) 地质工程2019-2</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>基础工程与地基处理刘强 (8-17周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+          <t>工程测试与信号处理刘廷瑞 (5-9,14-17周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>GIS原理与应用张军建 (8-17周) 水文与水资源工程2019-1班,水文与水资源工程2019-1-2班,水文与水资源工程2019-2</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>基础工程与地基处理刘强 (16-17周) 地质工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>工程与环境物探张金伟 (9-17周) 地质工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>海洋工程地质学苗佳丽 (8-17周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+          <t>机械原理李学艺 (7-17单周) 机械设计制造及其自动化2020-1</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
@@ -3244,54 +3250,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>J14-324室</t>
+          <t>J14-326室</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>过程设备设计杨兴华 (4-9,14-17周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>机械原理李学艺 (7-17单周) 机械设计制造及其自动化2020-1</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>工程测试与信号处理刘廷瑞 (5-9,14-17周) 过程装备与控制工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>机械原理李学艺 (7-17单周) 机械设计制造及其自动化2020-1</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>学科前沿（Ⅰ）李晓宇 (14-17周) 过程装备与控制工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>过程设备设计杨兴华 (4-9,14-17周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>工程测试与信号处理刘廷瑞 (5-9,14-17周) 过程装备与控制工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>机械原理李学艺 (7-17单周) 机械设计制造及其自动化2020-1</t>
-        </is>
-      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -3313,16 +3303,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>J14-326室</t>
+          <t>J14-330室</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>过程设备设计杨兴华 (4-9,14-17周) 过程装备与控制工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>金融学（B）聂国栋 (12-19周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>审计学（A）刘英姿 (6-19周) 会计学2019-1-2</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -3330,13 +3324,21 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>世界经济概论曲越 (12-19周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>过程设备设计杨兴华 (4-9,14-17周) 过程装备与控制工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
+          <t>金融学（B）聂国栋 (12-19周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>审计学（A）刘英姿 (7-19周) 会计学2019-1-2</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
@@ -3345,7 +3347,11 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>世界经济概论曲越 (12-19周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
@@ -3366,20 +3372,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>J14-330室</t>
+          <t>J14-334室</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>金融学（B）聂国栋 (12-19周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>审计学（A）刘英姿 (6-19周) 会计学2019-1-2</t>
-        </is>
-      </c>
+          <t>数字测图原理与方法王健 (12-19周) 遥感科学与技术2021-1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -3387,21 +3389,9 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>世界经济概论曲越 (12-19周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>金融学（B）聂国栋 (12-19周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>审计学（A）刘英姿 (7-19周) 会计学2019-1-2</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
@@ -3410,11 +3400,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>世界经济概论曲越 (12-19周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
+      <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
@@ -3435,15 +3421,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>J14-334室</t>
+          <t>J14-338室</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>数字测图原理与方法王健 (12-19周) 遥感科学与技术2021-1</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3452,7 +3434,11 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>工程概论史卫平 (10-17周) 高分子材料与工程2020-1-3</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
@@ -3484,36 +3470,64 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>J14-338室</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>J14-340室</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>有机化学（2-1）高登征 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）马进 (11-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>工程概论王永萍 (10-15,17-18周) 生物工程2020-1-2</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>物理化学邵谦 (4-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>工程概论史卫平 (10-17周) 高分子材料与工程2020-1-3</t>
+          <t>有机化学（2-1）高登征 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>工程概论王永萍 (10-15,17-18周) 生物工程2020-1-2</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>物理化学邵谦 (4-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）马进 (11-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
@@ -3533,62 +3547,62 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>J14-340室</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）高登征 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）马进 (11-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>工程概论王永萍 (10-15,17-18周) 生物工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>J14-342室</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>金属材料学王淑峰 (17周) 金属材料工程2019-5</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>分析化学李硕琦 (8-19周) 材料化学2020-1</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>物理化学邵谦 (4-19周) 应用化学2020-1-3</t>
+          <t>结构化学孙海清 (11-18周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）高登征 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>工程概论王永萍 (10-15,17-18周) 生物工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-3</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>物理化学邵谦 (4-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-2</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>分析化学李硕琦 (15-19周) 材料化学2020-1</t>
+        </is>
+      </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-2</t>
+        </is>
+      </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>电工电子技术（B）马进 (11-19周) 应用化学2020-1-3</t>
+          <t>结构化学孙海清 (11-18周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr"/>
@@ -3610,49 +3624,57 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>J14-342室</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>J14-405室</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金融工程*尘娜 (11-19周) 投资学2019-1-2</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>金属材料学王淑峰 (17周) 金属材料工程2019-5</t>
+          <t>投资银行学孟科学 (10-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>分析化学李硕琦 (8-19周) 材料化学2020-1</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>结构化学孙海清 (11-18周) 新能源材料与器件2020-1</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>ERP原理与应用(B)王松 (11-17周) 电子商务2019-1-2</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>金融工程*尘娜 (11-19周) 投资学2019-1-2</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-3</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>文献检索与论文写作刘露 (11-18周) 物流管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>投资银行学孟科学 (10-18周) 金融学2019-1-2</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-2</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>国际贸易合同刘本玲 (11-19周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>分析化学李硕琦 (15-19周) 材料化学2020-1</t>
+          <t>ERP原理与应用(B)王松 (11-17周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="U43" t="inlineStr"/>
@@ -3660,14 +3682,10 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr">
         <is>
-          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-2</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>结构化学孙海清 (11-18周) 新能源材料与器件2020-1</t>
-        </is>
-      </c>
+          <t>文献检索与论文写作刘露 (11-18周) 物流管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
@@ -3687,67 +3705,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>J14-405室</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>金融工程*尘娜 (11-19周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>投资银行学孟科学 (10-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-406室</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>ERP原理与应用(B)王松 (11-17周) 电子商务2019-1-2</t>
+          <t>材料腐蚀与防护曾荣昌 (10-17周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>金融工程*尘娜 (11-19周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>文献检索与论文写作刘露 (11-18周) 物流管理2020-1-2</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>投资银行学孟科学 (10-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>国际贸易合同刘本玲 (11-19周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>ERP原理与应用(B)王松 (11-17周) 电子商务2019-1-2</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>材料腐蚀与防护曾荣昌 (10-17周) 材料化学2019-1-2</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>文献检索与论文写作刘露 (11-18周) 物流管理2020-1-2</t>
-        </is>
-      </c>
+      <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
@@ -3768,7 +3758,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>J14-406室</t>
+          <t>J14-407室</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -3776,32 +3766,36 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>材料腐蚀与防护曾荣昌 (10-17周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>材料表面工程技术王灿明 (10-17周) 金属材料工程2019-1-5</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>焊接方法与设备曹梅青 (10-17周) 金属材料工程2019-1-5</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>材料腐蚀与防护曾荣昌 (10-17周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>焊接方法与设备曹梅青 (10-17周) 金属材料工程2019-1-5</t>
+        </is>
+      </c>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
@@ -3821,44 +3815,60 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>J14-407室</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>J14-409室</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>有机化学（2-1）王翠珍 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>材料表面工程技术王灿明 (10-17周) 金属材料工程2019-1-5</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>仪器分析刘静 (11-15,17周) 生物工程2020-2</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>高分子物理崔立强 (11-15,17-19周) 应用化学2019-1-3</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>有机化学（2-1）王翠珍 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>焊接方法与设备曹梅青 (10-17周) 金属材料工程2019-1-5</t>
-        </is>
-      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>仪器分析刘静 (11-15,17周) 生物工程2020-2</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>高分子物理崔立强 (11-15,17-19周) 应用化学2019-1-3</t>
+        </is>
+      </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>焊接方法与设备曹梅青 (10-17周) 金属材料工程2019-1-5</t>
-        </is>
-      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C语言）鲁法明 (12-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
@@ -3878,59 +3888,55 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>J14-409室</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）王翠珍 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>J14-410室</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>仪器分析刘静 (11-15,17周) 生物工程2020-2</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>高分子物理崔立强 (11-15,17-19周) 应用化学2019-1-3</t>
-        </is>
-      </c>
+          <t>机械设计基础（B）于蓉蓉 (11-18周) 工业工程2020-2</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）王翠珍 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>市场营销学(A)吕晓菲 (8-19周) 工商管理(体育)2020</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>仪器分析刘静 (11-15,17周) 生物工程2020-2</t>
+          <t>机械设计基础（B）于蓉蓉 (11-18周) 工业工程2020-2</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>高分子物理崔立强 (11-15,17-19周) 应用化学2019-1-3</t>
+          <t>流体力学宋立英 (10-17周) 环境工程2020-3-4</t>
         </is>
       </c>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>市场营销学(A)吕晓菲 (8-19周) 工商管理(体育)2020</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C语言）鲁法明 (12-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
+      <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
@@ -3951,54 +3957,54 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>J14-410室</t>
+          <t>J14-413室</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+          <t>EXCEL财务应用刘立华 (5-18周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>机械设计基础（B）于蓉蓉 (11-18周) 工业工程2020-2</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>创业管理马恒平 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>市场营销学(A)吕晓菲 (8-19周) 工商管理(体育)2020</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>期货与期权闻德美 (11-19周) 投资学2019-1-2</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>机械设计基础（B）于蓉蓉 (11-18周) 工业工程2020-2</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>流体力学宋立英 (10-17周) 环境工程2020-3-4</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>人力资源管理(A)周志刚 (8-19周) 工商管理(体育)2020</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>创业管理马恒平 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>市场营销学(A)吕晓菲 (8-19周) 工商管理(体育)2020</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>人力资源管理(A)周志刚 (8-19周) 工商管理(体育)2020</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
@@ -4020,44 +4026,48 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>J14-413室</t>
+          <t>J14-414室</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>EXCEL财务应用刘立华 (5-18周) 会计学2019-1-2</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>水文地质学基础高宗军,张彧齐 (11-18单周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>创业管理马恒平 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+          <t>地质灾害与防治邓清海 (8-17周) 地质工程2019-3</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>期货与期权闻德美 (11-19周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>战略管理（A）方宏 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>水文地质学基础高宗军,张彧齐 (11-18周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>人力资源管理(A)周志刚 (8-19周) 工商管理(体育)2020</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>微观经济学(A)赵友宝 (8-19周) 工商管理(体育)2021</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>创业管理马恒平 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+          <t>地质灾害与防治邓清海 (8-17周) 地质工程2019-3</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
@@ -4065,11 +4075,19 @@
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>人力资源管理(A)周志刚 (8-19周) 工商管理(体育)2020</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+          <t>微观经济学(A)赵友宝 (8-19周) 工商管理(体育)2021</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>战略管理（A）方宏 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>水文地质学基础高宗军,张彧齐 (11-18周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
@@ -4089,68 +4107,44 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>J14-414室</t>
+          <t>J14-416室</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>水文地质学基础高宗军,张彧齐 (11-18单周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>地质灾害与防治邓清海 (8-17周) 地质工程2019-3</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>结构化学刘瑞 (11-18周) 新能源材料与器件2020-2</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>战略管理（A）方宏 (10-18周) 工商管理(社会体育指导与管理)2019</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>水文地质学基础高宗军,张彧齐 (11-18周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>微观经济学(A)赵友宝 (8-19周) 工商管理(体育)2021</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>地质灾害与防治邓清海 (8-17周) 地质工程2019-3</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>材料表面工程技术王灿明 (10-17周) 金属材料工程2019-1-5</t>
+        </is>
+      </c>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>微观经济学(A)赵友宝 (8-19周) 工商管理(体育)2021</t>
-        </is>
-      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr">
         <is>
-          <t>战略管理（A）方宏 (10-18周) 工商管理(社会体育指导与管理)2019</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>水文地质学基础高宗军,张彧齐 (11-18周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+          <t>结构化学刘瑞 (11-18周) 新能源材料与器件2020-2</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
@@ -4170,7 +4164,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>J14-416室</t>
+          <t>J14-418室</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -4178,11 +4172,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>结构化学刘瑞 (11-18周) 新能源材料与器件2020-2</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -4192,21 +4182,21 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>地球化学勘探韩文学,林玉祥 (12-17周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>材料表面工程技术王灿明 (10-17周) 金属材料工程2019-1-5</t>
-        </is>
-      </c>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>结构化学刘瑞 (11-18周) 新能源材料与器件2020-2</t>
-        </is>
-      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>矿物学赵延洋 (13-18周) 地质工程2021-3</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
@@ -4227,11 +4217,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>J14-418室</t>
+          <t>J14-419室</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GIS基础与地学应用刘一霖 (11-18周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -4247,18 +4241,14 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>地球化学勘探韩文学,林玉祥 (12-17周) 资源勘查工程2019-3</t>
+          <t>GIS基础与地学应用刘一霖 (11-18周) 勘查技术与工程2020-1-2</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>矿物学赵延洋 (13-18周) 地质工程2021-3</t>
-        </is>
-      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
@@ -4280,13 +4270,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>J14-419室</t>
+          <t>J14-420室</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>GIS基础与地学应用刘一霖 (11-18周) 勘查技术与工程2020-1-2</t>
+          <t>专门水文地质学邓清海 (8-17周) 水文与水资源工程2019-2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -4298,15 +4288,15 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>专门水文地质学邓清海 (8-17周) 水文与水资源工程2019-2</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>GIS基础与地学应用刘一霖 (11-18周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -4333,13 +4323,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>J14-420室</t>
+          <t>J14-421室</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>专门水文地质学邓清海 (8-17周) 水文与水资源工程2019-2</t>
+          <t>GIS软件工程刘冰 (9-17周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -4350,22 +4340,34 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>GIS软件工程刘冰 (9-17周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>专门水文地质学邓清海 (8-17周) 水文与水资源工程2019-2</t>
+          <t>地史学王平丽 (12-19周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>地史学王平丽 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
@@ -4386,15 +4388,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>J14-421室</t>
+          <t>J14-423室</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GIS软件工程刘冰 (9-17周) 地理信息科学2019-1-3</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -4403,35 +4401,27 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>GIS软件工程刘冰 (9-17周) 地理信息科学2019-1-3</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>地史学王平丽 (12-19周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>钻探工程张晓阳 (9-17周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>地史学王平丽 (12-19周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>钻探工程张晓阳 (9-17周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
@@ -4451,7 +4441,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>J14-423室</t>
+          <t>J14-430室</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -4472,17 +4462,13 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>钻探工程张晓阳 (9-17周) 资源勘查工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>钻探工程张晓阳 (9-17周) 资源勘查工程2019-1-3</t>
+          <t>数字测图原理与方法王健 (12-19周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr"/>
@@ -4504,16 +4490,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>J14-430室</t>
+          <t>J14-432室</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>水文地质学谢道雷 (10-17周) 地质工程2020-2</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -4522,18 +4516,18 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>水文地质学谢道雷 (10-17周) 地质工程2020-2</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>数字测图原理与方法王健 (12-19周) 遥感科学与技术2021-1</t>
-        </is>
-      </c>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
@@ -4553,22 +4547,18 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>J14-432室</t>
+          <t>J14-434室</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>水文地质学谢道雷 (10-17周) 地质工程2020-2</t>
+          <t>水文地质学张伟杰 (10-17周) 地质工程2020-3</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -4581,7 +4571,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>水文地质学谢道雷 (10-17周) 地质工程2020-2</t>
+          <t>水文地质学张伟杰 (10-17周) 地质工程2020-3</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -4610,40 +4600,56 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>J14-434室</t>
+          <t>J14-436室</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>化工原理李敏 (1-15,17-19周) 应用化学2019-1-2</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>水文地质学张伟杰 (10-17周) 地质工程2020-3</t>
-        </is>
-      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>物理化学黄永清 (4-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>工程概论孙琳琳 (10-17周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>水文地质学张伟杰 (10-17周) 地质工程2020-3</t>
+          <t>物理化学黄永清 (4-19周) 应用化学2020-1-3</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>工程概论孙琳琳 (10-17周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>细胞工程闫华晓 (10-18周) 生物工程2019-1</t>
+        </is>
+      </c>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
@@ -4663,56 +4669,44 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>J14-436室</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>化工原理李敏 (1-15,17-19周) 应用化学2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-440室</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>有机化学（2-1）卢文欣 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>物理化学黄永清 (4-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>工程概论孙琳琳 (10-17周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>有机化学（2-1）卢文欣 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>计算机程序设计（VB）由晓芳 (12-19周) 矿物加工工程2021-1-3</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>物理化学黄永清 (4-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>工程概论孙琳琳 (10-17周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>细胞工程闫华晓 (10-18周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
@@ -4732,15 +4726,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>J14-440室</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）卢文欣 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>J14-442室</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>金属材料学李桂杰 (17周) 金属材料工程2019-3</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
@@ -4748,27 +4742,31 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）卢文欣 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>分析化学李硕琦 (8-19周) 材料化学2020-2</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>计算机程序设计（VB）由晓芳 (12-19周) 矿物加工工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>塑料助剂合成与应用王忠卫 (10-17周) 材料化学2019-1-2</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>分析化学李硕琦 (8-19周) 材料化学2020-2</t>
+        </is>
+      </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
@@ -4789,48 +4787,64 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>J14-442室</t>
+          <t>J14-503室</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>金属材料学李桂杰 (17周) 金属材料工程2019-3</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>网络营销（A）侯艳辉 (10-18周) 电子商务2019-2</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>电子商务孙丽华 (13-19周) 大数据管理与应用2021-1</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>分析化学李硕琦 (8-19周) 材料化学2020-2</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Java程序设计周长红 (12-19周) 大数据管理与应用2021-1</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Java程序设计周长红 (13-19周) 大数据管理与应用2021-2</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>塑料助剂合成与应用王忠卫 (10-17周) 材料化学2019-1-2</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr"/>
+          <t>电子商务孙丽华 (13-19周) 大数据管理与应用2021-1</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>网络营销（A）侯艳辉 (10-18周) 电子商务2019-2</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
-          <t>分析化学李硕琦 (8-19周) 材料化学2020-2</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr"/>
+          <t>Java程序设计周长红 (12-19周) 大数据管理与应用2021-1</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>Java程序设计周长红 (13-19周) 大数据管理与应用2021-2</t>
+        </is>
+      </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
@@ -4850,64 +4864,48 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>J14-503室</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>网络营销（A）侯艳辉 (10-18周) 电子商务2019-2</t>
-        </is>
-      </c>
+          <t>J14-504室</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-2</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>电子商务孙丽华 (13-19周) 大数据管理与应用2021-1</t>
-        </is>
-      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Java程序设计周长红 (12-19周) 大数据管理与应用2021-1</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Java程序设计周长红 (13-19周) 大数据管理与应用2021-2</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr"/>
+          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-1</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-1</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>电子商务孙丽华 (13-19周) 大数据管理与应用2021-1</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>网络营销（A）侯艳辉 (10-18周) 电子商务2019-2</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>Java程序设计周长红 (12-19周) 大数据管理与应用2021-1</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>Java程序设计周长红 (13-19周) 大数据管理与应用2021-2</t>
-        </is>
-      </c>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
@@ -4927,42 +4925,34 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>J14-504室</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-2</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-2</t>
-        </is>
-      </c>
+          <t>J14-513室</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>材料力学谭涛 (11-18周) 机械电子工程(留学生)2020</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-1</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-1</t>
-        </is>
-      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>材料力学谭涛 (11-18周) 机械电子工程(留学生)2020</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -4988,39 +4978,63 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>J14-513室</t>
+          <t>J14-512室</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>材料力学谭涛 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>材料力学谭涛 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
@@ -5041,61 +5055,81 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>J14-512室</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+          <t>J14-514室</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
-        </is>
-      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr"/>
@@ -5118,17 +5152,21 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>J14-523室</t>
+          <t>J14-516室</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>材料科学基础 (A)谢鲲 (17周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -5136,21 +5174,33 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>材料科学基础 (A)谢鲲 (17周) 金属材料工程2020-2</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-17周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-17周) 环境设计2021-2</t>
+        </is>
+      </c>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
@@ -5171,83 +5221,35 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>J14-514室</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
-        </is>
-      </c>
+          <t>J14-531室</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
-        </is>
-      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr">
         <is>
-          <t>室内设计（二）刘伟 (14-17周) 环境设计2019-1</t>
+          <t>工程概论任英伟 (10-17周) 金属材料工程2020-1-4</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>室内设计（二）胡永胜 (14-17周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
@@ -5268,21 +5270,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-533室</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -5290,33 +5288,21 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）甄珍 (16-17周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）甄珍 (16-17周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
@@ -5337,7 +5323,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>J14-531室</t>
+          <t>J14-535室</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -5345,7 +5331,11 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>水文学原理张升堂 (11-18周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -5356,11 +5346,7 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>工程概论任英伟 (10-17周) 金属材料工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
@@ -5386,15 +5372,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>J14-533室</t>
+          <t>J14-524室</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -5403,22 +5385,42 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
+          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>插画姚沫 (17周) 视觉传达设计2020-2 插画宋美音 (17周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
@@ -5439,7 +5441,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>J14-535室</t>
+          <t>J14-528室</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -5447,11 +5449,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>水文学原理张升堂 (11-18周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -5463,11 +5461,27 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
@@ -5488,53 +5502,53 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>J14-524室</t>
+          <t>J14-530室</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>插画姚沫 (17周) 视觉传达设计2020-2 插画宋美音 (17周) 视觉传达设计2020-1</t>
-        </is>
-      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr">
         <is>
-          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
+          <t>形态构成设计（二）李强 (16-17周) 环境设计2021-1</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>插画姚沫 (15-17周) 视觉传达设计2020-2 插画宋美音 (15-17周) 视觉传达设计2020-1</t>
+          <t>形态构成设计（二）李强 (16-17周) 环境设计2021-1</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr"/>
@@ -5557,7 +5571,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>J14-528室</t>
+          <t>J14-532室</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -5579,23 +5593,23 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr"/>
@@ -5618,53 +5632,45 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>J14-530室</t>
+          <t>J14-536室</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>形态构成设计（二）李强 (16-17周) 环境设计2021-1</t>
+          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>形态构成设计（二）李强 (16-17周) 环境设计2021-1</t>
+          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr"/>
@@ -5687,7 +5693,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>J14-532室</t>
+          <t>J14-540室</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -5706,26 +5712,30 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
         </is>
       </c>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr"/>
@@ -5748,7 +5758,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>J14-536室</t>
+          <t>J14-511室</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -5761,17 +5771,13 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
@@ -5779,14 +5785,10 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr">
         <is>
-          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr"/>
@@ -5809,7 +5811,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>J14-540室</t>
+          <t>J14-521室</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -5818,7 +5820,11 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -5828,32 +5834,16 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
@@ -5874,39 +5864,59 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>J14-511室</t>
+          <t>J14-332室</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>矿物学赵延洋 (13-18周) 地质工程2021-3</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>工程测量田茂义 (13-18周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>工程测量田茂义 (13-18周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
@@ -5927,39 +5937,75 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J14-521室</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+          <t>J14-519室</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
+        </is>
+      </c>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
+        </is>
+      </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
-          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
+        </is>
+      </c>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
@@ -5974,168 +6020,6 @@
       <c r="AJ80" t="inlineStr"/>
       <c r="AK80" t="inlineStr"/>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>J14-332室</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>矿物学赵延洋 (13-18周) 地质工程2021-3</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>工程测量田茂义 (13-18周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>工程测量田茂义 (13-18周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
-      <c r="AB81" t="inlineStr"/>
-      <c r="AC81" t="inlineStr"/>
-      <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="inlineStr"/>
-      <c r="AF81" t="inlineStr"/>
-      <c r="AG81" t="inlineStr"/>
-      <c r="AH81" t="inlineStr"/>
-      <c r="AI81" t="inlineStr"/>
-      <c r="AJ81" t="inlineStr"/>
-      <c r="AK81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>J14-519室</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
-      <c r="AA82" t="inlineStr"/>
-      <c r="AB82" t="inlineStr"/>
-      <c r="AC82" t="inlineStr"/>
-      <c r="AD82" t="inlineStr"/>
-      <c r="AE82" t="inlineStr"/>
-      <c r="AF82" t="inlineStr"/>
-      <c r="AG82" t="inlineStr"/>
-      <c r="AH82" t="inlineStr"/>
-      <c r="AI82" t="inlineStr"/>
-      <c r="AJ82" t="inlineStr"/>
-      <c r="AK82" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
